--- a/data/Tipping Points Data.xlsx
+++ b/data/Tipping Points Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freit\Documents\00 UniBremen\WS 18\Beyond Heatmaps\Project\FinalProject\D3Example\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A862C9-0A9A-41B9-AEF1-4A9D28EA668E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3278B026-77FC-49DD-B294-A45E29396601}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="131">
   <si>
     <t>Process</t>
   </si>
@@ -304,21 +304,6 @@
     <t>https://climate.nasa.gov/vital-signs/global-temperature/</t>
   </si>
   <si>
-    <t>-0.12</t>
-  </si>
-  <si>
-    <t>-0.07</t>
-  </si>
-  <si>
-    <t>-0.08</t>
-  </si>
-  <si>
-    <t>-0.15</t>
-  </si>
-  <si>
-    <t>-0.25</t>
-  </si>
-  <si>
     <t>Tree fraction (+)</t>
   </si>
   <si>
@@ -326,30 +311,6 @@
   </si>
   <si>
     <t>Missing‖</t>
-  </si>
-  <si>
-    <t>-0.32</t>
-  </si>
-  <si>
-    <t>-0.31</t>
-  </si>
-  <si>
-    <t>-0.28</t>
-  </si>
-  <si>
-    <t>-0.18</t>
-  </si>
-  <si>
-    <t>-0.10</t>
-  </si>
-  <si>
-    <t>-0.09</t>
-  </si>
-  <si>
-    <t>-0.11</t>
-  </si>
-  <si>
-    <t>-0.19</t>
   </si>
   <si>
     <t>—</t>
@@ -361,61 +322,10 @@
     <t>Permafrost*</t>
   </si>
   <si>
-    <t>-0.14</t>
-  </si>
-  <si>
-    <t>-0.35</t>
-  </si>
-  <si>
-    <t>-0.34</t>
-  </si>
-  <si>
-    <t>-0.37</t>
-  </si>
-  <si>
-    <t>-0.23</t>
-  </si>
-  <si>
-    <t>-0.27</t>
-  </si>
-  <si>
-    <t>-0.44</t>
-  </si>
-  <si>
-    <t>-0.43</t>
-  </si>
-  <si>
-    <t>-0.33</t>
-  </si>
-  <si>
     <t>Volume (−)</t>
   </si>
   <si>
     <t>ΔTpermafrost</t>
-  </si>
-  <si>
-    <t>-0.16</t>
-  </si>
-  <si>
-    <t>-0.30</t>
-  </si>
-  <si>
-    <t>-0.39</t>
-  </si>
-  <si>
-    <t>-0.49</t>
-  </si>
-  <si>
-    <t>-0.40</t>
-  </si>
-  <si>
-    <t>-0.24</t>
-  </si>
-  <si>
-    <t>-0.47</t>
-  </si>
-  <si>
-    <t>-0.05</t>
   </si>
   <si>
     <t>&lt;100 yr (gradual)</t>
@@ -427,52 +337,10 @@
     <t>Marine methane hydrates*</t>
   </si>
   <si>
-    <t>-0.36</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>-0.17</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
     <t>Hydrate volume (−)</t>
   </si>
   <si>
     <t>ΔTsediment</t>
-  </si>
-  <si>
-    <t>-0.20</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>-0.04</t>
-  </si>
-  <si>
-    <t>0.18</t>
   </si>
   <si>
     <t>103 to 105 yr (&gt;TE)</t>
@@ -484,15 +352,6 @@
     <t>Ocean anoxia*</t>
   </si>
   <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
     <t>Ocean anoxia (+)</t>
   </si>
   <si>
@@ -500,15 +359,6 @@
   </si>
   <si>
     <t>≈20%</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>0.14</t>
   </si>
   <si>
     <t>≈104 yr (&gt;TE)</t>
@@ -520,45 +370,6 @@
     <t>Arctic ozone*</t>
   </si>
   <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>0.44</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>0.40</t>
-  </si>
-  <si>
     <t>Column depth (−)</t>
   </si>
   <si>
@@ -566,45 +377,6 @@
   </si>
   <si>
     <t>195 K</t>
-  </si>
-  <si>
-    <t>0.53</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>0.70</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>0.98</t>
-  </si>
-  <si>
-    <t>0.90</t>
-  </si>
-  <si>
-    <t>0.82</t>
   </si>
   <si>
     <t>&lt;1 yr (rapid)</t>
@@ -942,7 +714,42 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{7A2D7157-4AF2-4E63-894C-AA5D9F58603C}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1001,6 +808,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD20000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1010,6 +822,2450 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Temperatures!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Annomaly</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Temperatures!$A$2:$A$272</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="271"/>
+                <c:pt idx="0">
+                  <c:v>1880</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1882</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1883</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1884</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1885</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1886</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1887</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1888</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1889</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1890</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1891</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1892</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1893</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1894</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1895</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1896</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1897</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1898</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1899</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1902</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1904</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1906</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1907</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1908</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1909</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1911</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1912</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1913</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1914</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1915</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1916</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1917</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1918</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1919</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1921</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1922</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1923</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1924</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1925</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1926</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1927</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1929</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1930</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1931</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1933</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1935</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1939</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1945</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1946</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1948</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1949</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1953</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1954</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1955</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1958</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1959</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2052</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2053</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2056</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2057</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2058</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2060</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2061</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2062</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2063</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2065</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2066</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2067</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2068</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2069</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2071</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2072</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2073</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2074</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2075</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2076</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2077</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2078</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2079</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2081</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2082</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2083</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2084</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2085</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2086</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2087</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2088</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2089</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2091</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2092</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2093</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2094</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2095</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2096</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2097</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2098</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2099</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2101</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2102</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2103</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2104</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2105</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2106</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2107</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2108</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2109</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2110</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2111</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2112</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2113</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2114</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2115</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2116</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2117</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2118</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2119</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2120</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2122</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2123</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2124</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2125</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2126</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2127</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2128</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2129</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2131</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2132</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2133</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2134</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2135</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2136</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2137</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2138</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2139</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2140</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2142</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2143</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2144</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2145</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2146</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2147</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2148</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2149</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Temperatures!$B$2:$B$272</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="271"/>
+                <c:pt idx="0">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.43</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.47</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.43</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.36</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.33</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.27</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.27</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="139" formatCode="0.00">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="140" formatCode="0.00">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="141" formatCode="0.00">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="142" formatCode="0.00">
+                  <c:v>0.94000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="143" formatCode="0.00">
+                  <c:v>0.98000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="144" formatCode="0.00">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="145" formatCode="0.00">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="146" formatCode="0.00">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="147" formatCode="0.00">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="148" formatCode="0.00">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="149" formatCode="0.00">
+                  <c:v>1.3800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="150" formatCode="0.00">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="151" formatCode="0.00">
+                  <c:v>1.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="152" formatCode="0.00">
+                  <c:v>1.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="153" formatCode="0.00">
+                  <c:v>1.5100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="154" formatCode="0.00">
+                  <c:v>1.5500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="155" formatCode="0.00">
+                  <c:v>1.5700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="156" formatCode="0.00">
+                  <c:v>1.6100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="157" formatCode="0.00">
+                  <c:v>1.6300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="158" formatCode="0.00">
+                  <c:v>1.6700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="159" formatCode="0.00">
+                  <c:v>1.6900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="160" formatCode="0.00">
+                  <c:v>1.7300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="161" formatCode="0.00">
+                  <c:v>1.7700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="162" formatCode="0.00">
+                  <c:v>1.8000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="163" formatCode="0.00">
+                  <c:v>1.8200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="164" formatCode="0.00">
+                  <c:v>1.8600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="165" formatCode="0.00">
+                  <c:v>1.9000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="166" formatCode="0.00">
+                  <c:v>1.9200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="167" formatCode="0.00">
+                  <c:v>1.9600000000000006</c:v>
+                </c:pt>
+                <c:pt idx="168" formatCode="0.00">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="169" formatCode="0.00">
+                  <c:v>2.0400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="170" formatCode="0.00">
+                  <c:v>2.0800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="171" formatCode="0.00">
+                  <c:v>2.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="172" formatCode="0.00">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="173" formatCode="0.00">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="174" formatCode="0.00">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="175" formatCode="0.00">
+                  <c:v>2.2600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="176" formatCode="0.00">
+                  <c:v>2.29</c:v>
+                </c:pt>
+                <c:pt idx="177" formatCode="0.00">
+                  <c:v>2.3199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="178" formatCode="0.00">
+                  <c:v>2.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="179" formatCode="0.00">
+                  <c:v>2.3799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="180" formatCode="0.00">
+                  <c:v>2.3999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="181" formatCode="0.00">
+                  <c:v>2.4299999999999993</c:v>
+                </c:pt>
+                <c:pt idx="182" formatCode="0.00">
+                  <c:v>2.4699999999999993</c:v>
+                </c:pt>
+                <c:pt idx="183" formatCode="0.00">
+                  <c:v>2.5099999999999993</c:v>
+                </c:pt>
+                <c:pt idx="184" formatCode="0.00">
+                  <c:v>2.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="185" formatCode="0.00">
+                  <c:v>2.5599999999999992</c:v>
+                </c:pt>
+                <c:pt idx="186" formatCode="0.00">
+                  <c:v>2.5999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="187" formatCode="0.00">
+                  <c:v>2.629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="188" formatCode="0.00">
+                  <c:v>2.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="189" formatCode="0.00">
+                  <c:v>2.6799999999999988</c:v>
+                </c:pt>
+                <c:pt idx="190" formatCode="0.00">
+                  <c:v>2.6999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="191" formatCode="0.00">
+                  <c:v>2.7199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="192" formatCode="0.00">
+                  <c:v>2.7399999999999989</c:v>
+                </c:pt>
+                <c:pt idx="193" formatCode="0.00">
+                  <c:v>2.7799999999999989</c:v>
+                </c:pt>
+                <c:pt idx="194" formatCode="0.00">
+                  <c:v>2.8099999999999987</c:v>
+                </c:pt>
+                <c:pt idx="195" formatCode="0.00">
+                  <c:v>2.8399999999999985</c:v>
+                </c:pt>
+                <c:pt idx="196" formatCode="0.00">
+                  <c:v>2.8699999999999983</c:v>
+                </c:pt>
+                <c:pt idx="197" formatCode="0.00">
+                  <c:v>2.9099999999999984</c:v>
+                </c:pt>
+                <c:pt idx="198" formatCode="0.00">
+                  <c:v>2.9499999999999984</c:v>
+                </c:pt>
+                <c:pt idx="199" formatCode="0.00">
+                  <c:v>2.9899999999999984</c:v>
+                </c:pt>
+                <c:pt idx="200" formatCode="0.00">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="201" formatCode="0.00">
+                  <c:v>3.4499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="202" formatCode="0.00">
+                  <c:v>3.51</c:v>
+                </c:pt>
+                <c:pt idx="203" formatCode="0.00">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="204" formatCode="0.00">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="205" formatCode="0.00">
+                  <c:v>3.63</c:v>
+                </c:pt>
+                <c:pt idx="206" formatCode="0.00">
+                  <c:v>3.69</c:v>
+                </c:pt>
+                <c:pt idx="207" formatCode="0.00">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="208" formatCode="0.00">
+                  <c:v>3.79</c:v>
+                </c:pt>
+                <c:pt idx="209" formatCode="0.00">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="210" formatCode="0.00">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="211" formatCode="0.00">
+                  <c:v>3.96</c:v>
+                </c:pt>
+                <c:pt idx="212" formatCode="0.00">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="213" formatCode="0.00">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="214" formatCode="0.00">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="215" formatCode="0.00">
+                  <c:v>4.1599999999999993</c:v>
+                </c:pt>
+                <c:pt idx="216" formatCode="0.00">
+                  <c:v>4.2199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="217" formatCode="0.00">
+                  <c:v>4.2799999999999985</c:v>
+                </c:pt>
+                <c:pt idx="218" formatCode="0.00">
+                  <c:v>4.3199999999999985</c:v>
+                </c:pt>
+                <c:pt idx="219" formatCode="0.00">
+                  <c:v>4.3799999999999981</c:v>
+                </c:pt>
+                <c:pt idx="220" formatCode="0.00">
+                  <c:v>4.4299999999999979</c:v>
+                </c:pt>
+                <c:pt idx="221" formatCode="0.00">
+                  <c:v>4.4799999999999978</c:v>
+                </c:pt>
+                <c:pt idx="222" formatCode="0.00">
+                  <c:v>4.5199999999999978</c:v>
+                </c:pt>
+                <c:pt idx="223" formatCode="0.00">
+                  <c:v>4.5599999999999978</c:v>
+                </c:pt>
+                <c:pt idx="224" formatCode="0.00">
+                  <c:v>4.5999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="225" formatCode="0.00">
+                  <c:v>4.6399999999999979</c:v>
+                </c:pt>
+                <c:pt idx="226" formatCode="0.00">
+                  <c:v>4.6999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="227" formatCode="0.00">
+                  <c:v>4.7399999999999975</c:v>
+                </c:pt>
+                <c:pt idx="228" formatCode="0.00">
+                  <c:v>4.7799999999999976</c:v>
+                </c:pt>
+                <c:pt idx="229" formatCode="0.00">
+                  <c:v>4.8199999999999976</c:v>
+                </c:pt>
+                <c:pt idx="230" formatCode="0.00">
+                  <c:v>4.8699999999999974</c:v>
+                </c:pt>
+                <c:pt idx="231" formatCode="0.00">
+                  <c:v>4.9099999999999975</c:v>
+                </c:pt>
+                <c:pt idx="232" formatCode="0.00">
+                  <c:v>4.9499999999999975</c:v>
+                </c:pt>
+                <c:pt idx="233" formatCode="0.00">
+                  <c:v>4.9999999999999973</c:v>
+                </c:pt>
+                <c:pt idx="234" formatCode="0.00">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="235" formatCode="0.00">
+                  <c:v>5.57</c:v>
+                </c:pt>
+                <c:pt idx="236" formatCode="0.00">
+                  <c:v>5.63</c:v>
+                </c:pt>
+                <c:pt idx="237" formatCode="0.00">
+                  <c:v>5.6899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="238" formatCode="0.00">
+                  <c:v>5.7399999999999993</c:v>
+                </c:pt>
+                <c:pt idx="239" formatCode="0.00">
+                  <c:v>5.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="240" formatCode="0.00">
+                  <c:v>5.8499999999999988</c:v>
+                </c:pt>
+                <c:pt idx="241" formatCode="0.00">
+                  <c:v>5.8999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="242" formatCode="0.00">
+                  <c:v>5.9699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="243" formatCode="0.00">
+                  <c:v>6.0199999999999987</c:v>
+                </c:pt>
+                <c:pt idx="244" formatCode="0.00">
+                  <c:v>6.0699999999999985</c:v>
+                </c:pt>
+                <c:pt idx="245" formatCode="0.00">
+                  <c:v>6.1199999999999983</c:v>
+                </c:pt>
+                <c:pt idx="246" formatCode="0.00">
+                  <c:v>6.1899999999999986</c:v>
+                </c:pt>
+                <c:pt idx="247" formatCode="0.00">
+                  <c:v>6.2399999999999984</c:v>
+                </c:pt>
+                <c:pt idx="248" formatCode="0.00">
+                  <c:v>6.299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="249" formatCode="0.00">
+                  <c:v>6.3499999999999979</c:v>
+                </c:pt>
+                <c:pt idx="250" formatCode="0.00">
+                  <c:v>6.4099999999999975</c:v>
+                </c:pt>
+                <c:pt idx="251" formatCode="0.00">
+                  <c:v>6.4599999999999973</c:v>
+                </c:pt>
+                <c:pt idx="252" formatCode="0.00">
+                  <c:v>6.5099999999999971</c:v>
+                </c:pt>
+                <c:pt idx="253" formatCode="0.00">
+                  <c:v>6.5799999999999974</c:v>
+                </c:pt>
+                <c:pt idx="254" formatCode="0.00">
+                  <c:v>6.639999999999997</c:v>
+                </c:pt>
+                <c:pt idx="255" formatCode="0.00">
+                  <c:v>6.6999999999999966</c:v>
+                </c:pt>
+                <c:pt idx="256" formatCode="0.00">
+                  <c:v>6.7599999999999962</c:v>
+                </c:pt>
+                <c:pt idx="257" formatCode="0.00">
+                  <c:v>6.8099999999999961</c:v>
+                </c:pt>
+                <c:pt idx="258" formatCode="0.00">
+                  <c:v>6.8699999999999957</c:v>
+                </c:pt>
+                <c:pt idx="259" formatCode="0.00">
+                  <c:v>6.9399999999999959</c:v>
+                </c:pt>
+                <c:pt idx="260" formatCode="0.00">
+                  <c:v>6.9999999999999956</c:v>
+                </c:pt>
+                <c:pt idx="261" formatCode="0.00">
+                  <c:v>7.0699999999999958</c:v>
+                </c:pt>
+                <c:pt idx="262" formatCode="0.00">
+                  <c:v>7.1299999999999955</c:v>
+                </c:pt>
+                <c:pt idx="263" formatCode="0.00">
+                  <c:v>7.1799999999999953</c:v>
+                </c:pt>
+                <c:pt idx="264" formatCode="0.00">
+                  <c:v>7.2399999999999949</c:v>
+                </c:pt>
+                <c:pt idx="265" formatCode="0.00">
+                  <c:v>7.2899999999999947</c:v>
+                </c:pt>
+                <c:pt idx="266" formatCode="0.00">
+                  <c:v>7.3499999999999943</c:v>
+                </c:pt>
+                <c:pt idx="267" formatCode="0.00">
+                  <c:v>7.4199999999999946</c:v>
+                </c:pt>
+                <c:pt idx="268" formatCode="0.00">
+                  <c:v>7.4899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="269" formatCode="0.00">
+                  <c:v>7.5599999999999952</c:v>
+                </c:pt>
+                <c:pt idx="270" formatCode="0.00">
+                  <c:v>7.6299999999999955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-258C-4808-90D0-EFDC687548D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="522688904"/>
+        <c:axId val="522686608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="522688904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="522686608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="522686608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522688904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4716780</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>899160</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C405984-E60C-4EA6-B6A3-34DBE04B52D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1518,2299 +3774,2571 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="D240" sqref="D240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="72.88671875" customWidth="1"/>
-    <col min="4" max="4" width="56" customWidth="1"/>
+    <col min="4" max="4" width="72.88671875" customWidth="1"/>
+    <col min="5" max="5" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>82</v>
       </c>
       <c r="B1" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="14">
         <v>1880</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B2" s="14">
+        <v>-0.18</v>
+      </c>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="14">
         <v>1881</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B3" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="14">
         <v>1882</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B4" s="14">
+        <v>-0.11</v>
+      </c>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="14">
         <v>1883</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B5" s="14">
+        <v>-0.19</v>
+      </c>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="14">
         <v>1884</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B6" s="14">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="14">
         <v>1885</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B7" s="14">
+        <v>-0.31</v>
+      </c>
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="14">
         <v>1886</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B8" s="14">
+        <v>-0.32</v>
+      </c>
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="14">
         <v>1887</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B9" s="14">
+        <v>-0.35</v>
+      </c>
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="14">
         <v>1888</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B10" s="14">
+        <v>-0.18</v>
+      </c>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="14">
         <v>1889</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B11" s="14">
+        <v>-0.11</v>
+      </c>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="14">
         <v>1890</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B12" s="14">
+        <v>-0.37</v>
+      </c>
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="14">
         <v>1891</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B13" s="14">
+        <v>-0.23</v>
+      </c>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="14">
         <v>1892</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B14" s="14">
+        <v>-0.27</v>
+      </c>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="14">
         <v>1893</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B15" s="14">
+        <v>-0.32</v>
+      </c>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="14">
         <v>1894</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B16" s="14">
+        <v>-0.31</v>
+      </c>
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="14">
         <v>1895</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B17" s="14">
+        <v>-0.23</v>
+      </c>
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="14">
         <v>1896</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B18" s="14">
+        <v>-0.11</v>
+      </c>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="14">
         <v>1897</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B19" s="14">
+        <v>-0.12</v>
+      </c>
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="14">
         <v>1898</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B20" s="14">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="14">
         <v>1899</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B21" s="14">
+        <v>-0.19</v>
+      </c>
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="14">
         <v>1900</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B22" s="14">
+        <v>-0.09</v>
+      </c>
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="14">
         <v>1901</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B23" s="14">
+        <v>-0.16</v>
+      </c>
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="14">
         <v>1902</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B24" s="14">
+        <v>-0.3</v>
+      </c>
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="14">
         <v>1903</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B25" s="14">
+        <v>-0.39</v>
+      </c>
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="14">
         <v>1904</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B26" s="14">
+        <v>-0.49</v>
+      </c>
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="14">
         <v>1905</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B27" s="14">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="14">
         <v>1906</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B28" s="14">
+        <v>-0.23</v>
+      </c>
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="14">
         <v>1907</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="13.2">
+      <c r="B29" s="14">
+        <v>-0.4</v>
+      </c>
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="1:3" ht="13.2">
       <c r="A30" s="14">
         <v>1908</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="13.2">
+      <c r="B30" s="14">
+        <v>-0.43</v>
+      </c>
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="1:3" ht="13.2">
       <c r="A31" s="14">
         <v>1909</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="13.2">
+      <c r="B31" s="14">
+        <v>-0.47</v>
+      </c>
+      <c r="C31" s="14"/>
+    </row>
+    <row r="32" spans="1:3" ht="13.2">
       <c r="A32" s="14">
         <v>1910</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="13.2">
+      <c r="B32" s="14">
+        <v>-0.43</v>
+      </c>
+      <c r="C32" s="14"/>
+    </row>
+    <row r="33" spans="1:3" ht="13.2">
       <c r="A33" s="14">
         <v>1911</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="13.2">
+      <c r="B33" s="14">
+        <v>-0.43</v>
+      </c>
+      <c r="C33" s="14"/>
+    </row>
+    <row r="34" spans="1:3" ht="13.2">
       <c r="A34" s="14">
         <v>1912</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="13.2">
+      <c r="B34" s="14">
+        <v>-0.36</v>
+      </c>
+      <c r="C34" s="14"/>
+    </row>
+    <row r="35" spans="1:3" ht="13.2">
       <c r="A35" s="14">
         <v>1913</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="13.2">
+      <c r="B35" s="14">
+        <v>-0.35</v>
+      </c>
+      <c r="C35" s="14"/>
+    </row>
+    <row r="36" spans="1:3" ht="13.2">
       <c r="A36" s="14">
         <v>1914</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="13.2">
+      <c r="B36" s="14">
+        <v>-0.16</v>
+      </c>
+      <c r="C36" s="14"/>
+    </row>
+    <row r="37" spans="1:3" ht="13.2">
       <c r="A37" s="14">
         <v>1915</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="13.2">
+      <c r="B37" s="14">
+        <v>-0.12</v>
+      </c>
+      <c r="C37" s="14"/>
+    </row>
+    <row r="38" spans="1:3" ht="13.2">
       <c r="A38" s="14">
         <v>1916</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="13.2">
+      <c r="B38" s="14">
+        <v>-0.33</v>
+      </c>
+      <c r="C38" s="14"/>
+    </row>
+    <row r="39" spans="1:3" ht="13.2">
       <c r="A39" s="14">
         <v>1917</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="13.2">
+      <c r="B39" s="14">
+        <v>-0.44</v>
+      </c>
+      <c r="C39" s="14"/>
+    </row>
+    <row r="40" spans="1:3" ht="13.2">
       <c r="A40" s="14">
         <v>1918</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="13.2">
+      <c r="B40" s="14">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="C40" s="14"/>
+    </row>
+    <row r="41" spans="1:3" ht="13.2">
       <c r="A41" s="14">
         <v>1919</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="13.2">
+      <c r="B41" s="14">
+        <v>-0.27</v>
+      </c>
+      <c r="C41" s="14"/>
+    </row>
+    <row r="42" spans="1:3" ht="13.2">
       <c r="A42" s="14">
         <v>1920</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="13.2">
+      <c r="B42" s="14">
+        <v>-0.25</v>
+      </c>
+      <c r="C42" s="14"/>
+    </row>
+    <row r="43" spans="1:3" ht="13.2">
       <c r="A43" s="14">
         <v>1921</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="13.2">
+      <c r="B43" s="14">
+        <v>-0.17</v>
+      </c>
+      <c r="C43" s="14"/>
+    </row>
+    <row r="44" spans="1:3" ht="13.2">
       <c r="A44" s="14">
         <v>1922</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="13.2">
+      <c r="B44" s="14">
+        <v>-0.27</v>
+      </c>
+      <c r="C44" s="14"/>
+    </row>
+    <row r="45" spans="1:3" ht="13.2">
       <c r="A45" s="14">
         <v>1923</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="13.2">
+      <c r="B45" s="14">
+        <v>-0.24</v>
+      </c>
+      <c r="C45" s="14"/>
+    </row>
+    <row r="46" spans="1:3" ht="13.2">
       <c r="A46" s="14">
         <v>1924</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="13.2">
+      <c r="B46" s="14">
+        <v>-0.25</v>
+      </c>
+      <c r="C46" s="14"/>
+    </row>
+    <row r="47" spans="1:3" ht="13.2">
       <c r="A47" s="14">
         <v>1925</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="13.2">
+      <c r="B47" s="14">
+        <v>-0.2</v>
+      </c>
+      <c r="C47" s="14"/>
+    </row>
+    <row r="48" spans="1:3" ht="13.2">
       <c r="A48" s="14">
         <v>1926</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="13.2">
+      <c r="B48" s="14">
+        <v>-0.08</v>
+      </c>
+      <c r="C48" s="14"/>
+    </row>
+    <row r="49" spans="1:3" ht="13.2">
       <c r="A49" s="14">
         <v>1927</v>
       </c>
-      <c r="B49" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="13.2">
+      <c r="B49" s="14">
+        <v>-0.2</v>
+      </c>
+      <c r="C49" s="14"/>
+    </row>
+    <row r="50" spans="1:3" ht="13.2">
       <c r="A50" s="14">
         <v>1928</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="13.2">
+      <c r="B50" s="14">
+        <v>-0.19</v>
+      </c>
+      <c r="C50" s="14"/>
+    </row>
+    <row r="51" spans="1:3" ht="13.2">
       <c r="A51" s="14">
         <v>1929</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="13.2">
+      <c r="B51" s="14">
+        <v>-0.34</v>
+      </c>
+      <c r="C51" s="14"/>
+    </row>
+    <row r="52" spans="1:3" ht="13.2">
       <c r="A52" s="14">
         <v>1930</v>
       </c>
-      <c r="B52" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="13.2">
+      <c r="B52" s="14">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="C52" s="14"/>
+    </row>
+    <row r="53" spans="1:3" ht="13.2">
       <c r="A53" s="14">
         <v>1931</v>
       </c>
-      <c r="B53" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="13.2">
+      <c r="B53" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="C53" s="14"/>
+    </row>
+    <row r="54" spans="1:3" ht="13.2">
       <c r="A54" s="14">
         <v>1932</v>
       </c>
-      <c r="B54" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="13.2">
+      <c r="B54" s="14">
+        <v>-0.16</v>
+      </c>
+      <c r="C54" s="14"/>
+    </row>
+    <row r="55" spans="1:3" ht="13.2">
       <c r="A55" s="14">
         <v>1933</v>
       </c>
-      <c r="B55" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="13.2">
+      <c r="B55" s="14">
+        <v>-0.3</v>
+      </c>
+      <c r="C55" s="14"/>
+    </row>
+    <row r="56" spans="1:3" ht="13.2">
       <c r="A56" s="14">
         <v>1934</v>
       </c>
-      <c r="B56" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="13.2">
+      <c r="B56" s="14">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="C56" s="14"/>
+    </row>
+    <row r="57" spans="1:3" ht="13.2">
       <c r="A57" s="14">
         <v>1935</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="13.2">
+      <c r="B57" s="14">
+        <v>-0.2</v>
+      </c>
+      <c r="C57" s="14"/>
+    </row>
+    <row r="58" spans="1:3" ht="13.2">
       <c r="A58" s="14">
         <v>1936</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="13.2">
+      <c r="B58" s="14">
+        <v>-0.16</v>
+      </c>
+      <c r="C58" s="14"/>
+    </row>
+    <row r="59" spans="1:3" ht="13.2">
       <c r="A59" s="14">
         <v>1937</v>
       </c>
-      <c r="B59" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="13.2">
+      <c r="B59" s="14">
+        <v>-0.04</v>
+      </c>
+      <c r="C59" s="14"/>
+    </row>
+    <row r="60" spans="1:3" ht="13.2">
       <c r="A60" s="14">
         <v>1938</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="13.2">
+      <c r="B60" s="14">
+        <v>-0.03</v>
+      </c>
+      <c r="C60" s="14"/>
+    </row>
+    <row r="61" spans="1:3" ht="13.2">
       <c r="A61" s="14">
         <v>1939</v>
       </c>
-      <c r="B61" s="14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="13.2">
+      <c r="B61" s="14">
+        <v>-0.03</v>
+      </c>
+      <c r="C61" s="14"/>
+    </row>
+    <row r="62" spans="1:3" ht="13.2">
       <c r="A62" s="14">
         <v>1940</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="13.2">
+      <c r="B62" s="14">
+        <v>0.11</v>
+      </c>
+      <c r="C62" s="14"/>
+    </row>
+    <row r="63" spans="1:3" ht="13.2">
       <c r="A63" s="14">
         <v>1941</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="13.2">
+      <c r="B63" s="14">
+        <v>0.18</v>
+      </c>
+      <c r="C63" s="14"/>
+    </row>
+    <row r="64" spans="1:3" ht="13.2">
       <c r="A64" s="14">
         <v>1942</v>
       </c>
-      <c r="B64" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="13.2">
+      <c r="B64" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="C64" s="14"/>
+    </row>
+    <row r="65" spans="1:3" ht="13.2">
       <c r="A65" s="14">
         <v>1943</v>
       </c>
-      <c r="B65" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="13.2">
+      <c r="B65" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C65" s="14"/>
+    </row>
+    <row r="66" spans="1:3" ht="13.2">
       <c r="A66" s="14">
         <v>1944</v>
       </c>
-      <c r="B66" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="13.2">
+      <c r="B66" s="14">
+        <v>0.21</v>
+      </c>
+      <c r="C66" s="14"/>
+    </row>
+    <row r="67" spans="1:3" ht="13.2">
       <c r="A67" s="14">
         <v>1945</v>
       </c>
-      <c r="B67" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="13.2">
+      <c r="B67" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="C67" s="14"/>
+    </row>
+    <row r="68" spans="1:3" ht="13.2">
       <c r="A68" s="14">
         <v>1946</v>
       </c>
-      <c r="B68" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="13.2">
+      <c r="B68" s="14">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="C68" s="14"/>
+    </row>
+    <row r="69" spans="1:3" ht="13.2">
       <c r="A69" s="14">
         <v>1947</v>
       </c>
-      <c r="B69" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="13.2">
+      <c r="B69" s="14">
+        <v>-0.04</v>
+      </c>
+      <c r="C69" s="14"/>
+    </row>
+    <row r="70" spans="1:3" ht="13.2">
       <c r="A70" s="14">
         <v>1948</v>
       </c>
-      <c r="B70" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="13.2">
+      <c r="B70" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="C70" s="14"/>
+    </row>
+    <row r="71" spans="1:3" ht="13.2">
       <c r="A71" s="14">
         <v>1949</v>
       </c>
-      <c r="B71" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="13.2">
+      <c r="B71" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="C71" s="14"/>
+    </row>
+    <row r="72" spans="1:3" ht="13.2">
       <c r="A72" s="14">
         <v>1950</v>
       </c>
-      <c r="B72" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="13.2">
+      <c r="B72" s="14">
+        <v>-0.18</v>
+      </c>
+      <c r="C72" s="14"/>
+    </row>
+    <row r="73" spans="1:3" ht="13.2">
       <c r="A73" s="14">
         <v>1951</v>
       </c>
-      <c r="B73" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="13.2">
+      <c r="B73" s="14">
+        <v>-0.06</v>
+      </c>
+      <c r="C73" s="14"/>
+    </row>
+    <row r="74" spans="1:3" ht="13.2">
       <c r="A74" s="14">
         <v>1952</v>
       </c>
-      <c r="B74" s="14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="13.2">
+      <c r="B74" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="C74" s="14"/>
+    </row>
+    <row r="75" spans="1:3" ht="13.2">
       <c r="A75" s="14">
         <v>1953</v>
       </c>
-      <c r="B75" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="13.2">
+      <c r="B75" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C75" s="14"/>
+    </row>
+    <row r="76" spans="1:3" ht="13.2">
       <c r="A76" s="14">
         <v>1954</v>
       </c>
-      <c r="B76" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="13.2">
+      <c r="B76" s="14">
+        <v>-0.15</v>
+      </c>
+      <c r="C76" s="14"/>
+    </row>
+    <row r="77" spans="1:3" ht="13.2">
       <c r="A77" s="14">
         <v>1955</v>
       </c>
-      <c r="B77" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="13.2">
+      <c r="B77" s="14">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="C77" s="14"/>
+    </row>
+    <row r="78" spans="1:3" ht="13.2">
       <c r="A78" s="14">
         <v>1956</v>
       </c>
-      <c r="B78" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="13.2">
+      <c r="B78" s="14">
+        <v>-0.2</v>
+      </c>
+      <c r="C78" s="14"/>
+    </row>
+    <row r="79" spans="1:3" ht="13.2">
       <c r="A79" s="14">
         <v>1957</v>
       </c>
-      <c r="B79" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="13.2">
+      <c r="B79" s="14">
+        <v>0.04</v>
+      </c>
+      <c r="C79" s="14"/>
+    </row>
+    <row r="80" spans="1:3" ht="13.2">
       <c r="A80" s="14">
         <v>1958</v>
       </c>
-      <c r="B80" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="13.2">
+      <c r="B80" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C80" s="14"/>
+    </row>
+    <row r="81" spans="1:3" ht="13.2">
       <c r="A81" s="14">
         <v>1959</v>
       </c>
-      <c r="B81" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="13.2">
+      <c r="B81" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="C81" s="14"/>
+    </row>
+    <row r="82" spans="1:3" ht="13.2">
       <c r="A82" s="14">
         <v>1960</v>
       </c>
-      <c r="B82" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="13.2">
+      <c r="B82" s="14">
+        <v>-0.02</v>
+      </c>
+      <c r="C82" s="14"/>
+    </row>
+    <row r="83" spans="1:3" ht="13.2">
       <c r="A83" s="14">
         <v>1961</v>
       </c>
-      <c r="B83" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="13.2">
+      <c r="B83" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="C83" s="14"/>
+    </row>
+    <row r="84" spans="1:3" ht="13.2">
       <c r="A84" s="14">
         <v>1962</v>
       </c>
-      <c r="B84" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="13.2">
+      <c r="B84" s="14">
+        <v>0.04</v>
+      </c>
+      <c r="C84" s="14"/>
+    </row>
+    <row r="85" spans="1:3" ht="13.2">
       <c r="A85" s="14">
         <v>1963</v>
       </c>
-      <c r="B85" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="13.2">
+      <c r="B85" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C85" s="14"/>
+    </row>
+    <row r="86" spans="1:3" ht="13.2">
       <c r="A86" s="14">
         <v>1964</v>
       </c>
-      <c r="B86" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="13.2">
+      <c r="B86" s="14">
+        <v>-0.2</v>
+      </c>
+      <c r="C86" s="14"/>
+    </row>
+    <row r="87" spans="1:3" ht="13.2">
       <c r="A87" s="14">
         <v>1965</v>
       </c>
-      <c r="B87" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="13.2">
+      <c r="B87" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="C87" s="14"/>
+    </row>
+    <row r="88" spans="1:3" ht="13.2">
       <c r="A88" s="14">
         <v>1966</v>
       </c>
-      <c r="B88" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="13.2">
+      <c r="B88" s="14">
+        <v>-0.05</v>
+      </c>
+      <c r="C88" s="14"/>
+    </row>
+    <row r="89" spans="1:3" ht="13.2">
       <c r="A89" s="14">
         <v>1967</v>
       </c>
-      <c r="B89" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="13.2">
+      <c r="B89" s="14">
+        <v>-0.02</v>
+      </c>
+      <c r="C89" s="14"/>
+    </row>
+    <row r="90" spans="1:3" ht="13.2">
       <c r="A90" s="14">
         <v>1968</v>
       </c>
-      <c r="B90" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="13.2">
+      <c r="B90" s="14">
+        <v>-0.08</v>
+      </c>
+      <c r="C90" s="14"/>
+    </row>
+    <row r="91" spans="1:3" ht="13.2">
       <c r="A91" s="14">
         <v>1969</v>
       </c>
-      <c r="B91" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="13.2">
+      <c r="B91" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C91" s="14"/>
+    </row>
+    <row r="92" spans="1:3" ht="13.2">
       <c r="A92" s="14">
         <v>1970</v>
       </c>
-      <c r="B92" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="13.2">
+      <c r="B92" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="C92" s="14"/>
+    </row>
+    <row r="93" spans="1:3" ht="13.2">
       <c r="A93" s="14">
         <v>1971</v>
       </c>
-      <c r="B93" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="13.2">
+      <c r="B93" s="14">
+        <v>-0.09</v>
+      </c>
+      <c r="C93" s="14"/>
+    </row>
+    <row r="94" spans="1:3" ht="13.2">
       <c r="A94" s="14">
         <v>1972</v>
       </c>
-      <c r="B94" s="14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="13.2">
+      <c r="B94" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="C94" s="14"/>
+    </row>
+    <row r="95" spans="1:3" ht="13.2">
       <c r="A95" s="14">
         <v>1973</v>
       </c>
-      <c r="B95" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="13.2">
+      <c r="B95" s="14">
+        <v>0.16</v>
+      </c>
+      <c r="C95" s="14"/>
+    </row>
+    <row r="96" spans="1:3" ht="13.2">
       <c r="A96" s="14">
         <v>1974</v>
       </c>
-      <c r="B96" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="13.2">
+      <c r="B96" s="14">
+        <v>-0.08</v>
+      </c>
+      <c r="C96" s="14"/>
+    </row>
+    <row r="97" spans="1:3" ht="13.2">
       <c r="A97" s="14">
         <v>1975</v>
       </c>
-      <c r="B97" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="13.2">
+      <c r="B97" s="14">
+        <v>-0.02</v>
+      </c>
+      <c r="C97" s="14"/>
+    </row>
+    <row r="98" spans="1:3" ht="13.2">
       <c r="A98" s="14">
         <v>1976</v>
       </c>
-      <c r="B98" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="13.2">
+      <c r="B98" s="14">
+        <v>-0.11</v>
+      </c>
+      <c r="C98" s="14"/>
+    </row>
+    <row r="99" spans="1:3" ht="13.2">
       <c r="A99" s="14">
         <v>1977</v>
       </c>
-      <c r="B99" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="13.2">
+      <c r="B99" s="14">
+        <v>0.17</v>
+      </c>
+      <c r="C99" s="14"/>
+    </row>
+    <row r="100" spans="1:3" ht="13.2">
       <c r="A100" s="14">
         <v>1978</v>
       </c>
-      <c r="B100" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="13.2">
+      <c r="B100" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C100" s="14"/>
+    </row>
+    <row r="101" spans="1:3" ht="13.2">
       <c r="A101" s="14">
         <v>1979</v>
       </c>
-      <c r="B101" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="13.2">
+      <c r="B101" s="14">
+        <v>0.16</v>
+      </c>
+      <c r="C101" s="14"/>
+    </row>
+    <row r="102" spans="1:3" ht="13.2">
       <c r="A102" s="14">
         <v>1980</v>
       </c>
-      <c r="B102" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="13.2">
+      <c r="B102" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="C102" s="14"/>
+    </row>
+    <row r="103" spans="1:3" ht="13.2">
       <c r="A103" s="14">
         <v>1981</v>
       </c>
-      <c r="B103" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="13.2">
+      <c r="B103" s="14">
+        <v>0.33</v>
+      </c>
+      <c r="C103" s="14"/>
+    </row>
+    <row r="104" spans="1:3" ht="13.2">
       <c r="A104" s="14">
         <v>1982</v>
       </c>
-      <c r="B104" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="13.2">
+      <c r="B104" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C104" s="14"/>
+    </row>
+    <row r="105" spans="1:3" ht="13.2">
       <c r="A105" s="14">
         <v>1983</v>
       </c>
-      <c r="B105" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="13.2">
+      <c r="B105" s="14">
+        <v>0.31</v>
+      </c>
+      <c r="C105" s="14"/>
+    </row>
+    <row r="106" spans="1:3" ht="13.2">
       <c r="A106" s="14">
         <v>1984</v>
       </c>
-      <c r="B106" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="13.2">
+      <c r="B106" s="14">
+        <v>0.16</v>
+      </c>
+      <c r="C106" s="14"/>
+    </row>
+    <row r="107" spans="1:3" ht="13.2">
       <c r="A107" s="14">
         <v>1985</v>
       </c>
-      <c r="B107" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="13.2">
+      <c r="B107" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="C107" s="14"/>
+    </row>
+    <row r="108" spans="1:3" ht="13.2">
       <c r="A108" s="14">
         <v>1986</v>
       </c>
-      <c r="B108" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="13.2">
+      <c r="B108" s="14">
+        <v>0.18</v>
+      </c>
+      <c r="C108" s="14"/>
+    </row>
+    <row r="109" spans="1:3" ht="13.2">
       <c r="A109" s="14">
         <v>1987</v>
       </c>
-      <c r="B109" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="13.2">
+      <c r="B109" s="14">
+        <v>0.34</v>
+      </c>
+      <c r="C109" s="14"/>
+    </row>
+    <row r="110" spans="1:3" ht="13.2">
       <c r="A110" s="14">
         <v>1988</v>
       </c>
-      <c r="B110" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="13.2">
+      <c r="B110" s="14">
+        <v>0.41</v>
+      </c>
+      <c r="C110" s="14"/>
+    </row>
+    <row r="111" spans="1:3" ht="13.2">
       <c r="A111" s="14">
         <v>1989</v>
       </c>
-      <c r="B111" s="14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="13.2">
+      <c r="B111" s="14">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C111" s="14"/>
+    </row>
+    <row r="112" spans="1:3" ht="13.2">
       <c r="A112" s="14">
         <v>1990</v>
       </c>
-      <c r="B112" s="14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="13.2">
+      <c r="B112" s="14">
+        <v>0.44</v>
+      </c>
+      <c r="C112" s="14"/>
+    </row>
+    <row r="113" spans="1:3" ht="13.2">
       <c r="A113" s="14">
         <v>1991</v>
       </c>
-      <c r="B113" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="13.2">
+      <c r="B113" s="14">
+        <v>0.41</v>
+      </c>
+      <c r="C113" s="14"/>
+    </row>
+    <row r="114" spans="1:3" ht="13.2">
       <c r="A114" s="14">
         <v>1992</v>
       </c>
-      <c r="B114" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="13.2">
+      <c r="B114" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="C114" s="14"/>
+    </row>
+    <row r="115" spans="1:3" ht="13.2">
       <c r="A115" s="14">
         <v>1993</v>
       </c>
-      <c r="B115" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="13.2">
+      <c r="B115" s="14">
+        <v>0.24</v>
+      </c>
+      <c r="C115" s="14"/>
+    </row>
+    <row r="116" spans="1:3" ht="13.2">
       <c r="A116" s="14">
         <v>1994</v>
       </c>
-      <c r="B116" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="13.2">
+      <c r="B116" s="14">
+        <v>0.31</v>
+      </c>
+      <c r="C116" s="14"/>
+    </row>
+    <row r="117" spans="1:3" ht="13.2">
       <c r="A117" s="14">
         <v>1995</v>
       </c>
-      <c r="B117" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="13.2">
+      <c r="B117" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="C117" s="14"/>
+    </row>
+    <row r="118" spans="1:3" ht="13.2">
       <c r="A118" s="14">
         <v>1996</v>
       </c>
-      <c r="B118" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="13.2">
+      <c r="B118" s="14">
+        <v>0.34</v>
+      </c>
+      <c r="C118" s="14"/>
+    </row>
+    <row r="119" spans="1:3" ht="13.2">
       <c r="A119" s="14">
         <v>1997</v>
       </c>
-      <c r="B119" s="14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="13.2">
+      <c r="B119" s="14">
+        <v>0.47</v>
+      </c>
+      <c r="C119" s="14"/>
+    </row>
+    <row r="120" spans="1:3" ht="13.2">
       <c r="A120" s="14">
         <v>1998</v>
       </c>
-      <c r="B120" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="13.2">
+      <c r="B120" s="14">
+        <v>0.62</v>
+      </c>
+      <c r="C120" s="14"/>
+    </row>
+    <row r="121" spans="1:3" ht="13.2">
       <c r="A121" s="14">
         <v>1999</v>
       </c>
-      <c r="B121" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="13.2">
+      <c r="B121" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="C121" s="14"/>
+    </row>
+    <row r="122" spans="1:3" ht="13.2">
       <c r="A122" s="14">
         <v>2000</v>
       </c>
-      <c r="B122" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="13.2">
+      <c r="B122" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="C122" s="14"/>
+    </row>
+    <row r="123" spans="1:3" ht="13.2">
       <c r="A123" s="14">
         <v>2001</v>
       </c>
-      <c r="B123" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="13.2">
+      <c r="B123" s="14">
+        <v>0.53</v>
+      </c>
+      <c r="C123" s="14"/>
+    </row>
+    <row r="124" spans="1:3" ht="13.2">
       <c r="A124" s="14">
         <v>2002</v>
       </c>
-      <c r="B124" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="13.2">
+      <c r="B124" s="14">
+        <v>0.62</v>
+      </c>
+      <c r="C124" s="14"/>
+    </row>
+    <row r="125" spans="1:3" ht="13.2">
       <c r="A125" s="14">
         <v>2003</v>
       </c>
-      <c r="B125" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="13.2">
+      <c r="B125" s="14">
+        <v>0.61</v>
+      </c>
+      <c r="C125" s="14"/>
+    </row>
+    <row r="126" spans="1:3" ht="13.2">
       <c r="A126" s="14">
         <v>2004</v>
       </c>
-      <c r="B126" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="13.2">
+      <c r="B126" s="14">
+        <v>0.53</v>
+      </c>
+      <c r="C126" s="14"/>
+    </row>
+    <row r="127" spans="1:3" ht="13.2">
       <c r="A127" s="14">
         <v>2005</v>
       </c>
-      <c r="B127" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="13.2">
+      <c r="B127" s="14">
+        <v>0.67</v>
+      </c>
+      <c r="C127" s="14"/>
+    </row>
+    <row r="128" spans="1:3" ht="13.2">
       <c r="A128" s="14">
         <v>2006</v>
       </c>
-      <c r="B128" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="13.2">
+      <c r="B128" s="14">
+        <v>0.61</v>
+      </c>
+      <c r="C128" s="14"/>
+    </row>
+    <row r="129" spans="1:5" ht="13.2">
       <c r="A129" s="14">
         <v>2007</v>
       </c>
-      <c r="B129" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="13.2">
+      <c r="B129" s="14">
+        <v>0.64</v>
+      </c>
+      <c r="C129" s="14"/>
+    </row>
+    <row r="130" spans="1:5" ht="13.2">
       <c r="A130" s="14">
         <v>2008</v>
       </c>
-      <c r="B130" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="13.2">
+      <c r="B130" s="14">
+        <v>0.51</v>
+      </c>
+      <c r="C130" s="14"/>
+    </row>
+    <row r="131" spans="1:5" ht="13.2">
       <c r="A131" s="14">
         <v>2009</v>
       </c>
-      <c r="B131" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="13.2">
+      <c r="B131" s="14">
+        <v>0.63</v>
+      </c>
+      <c r="C131" s="14"/>
+    </row>
+    <row r="132" spans="1:5" ht="13.2">
       <c r="A132" s="14">
         <v>2010</v>
       </c>
-      <c r="B132" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="13.2">
+      <c r="B132" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="C132" s="14"/>
+    </row>
+    <row r="133" spans="1:5" ht="13.2">
       <c r="A133" s="14">
         <v>2011</v>
       </c>
-      <c r="B133" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="13.2">
+      <c r="B133" s="14">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C133" s="14"/>
+    </row>
+    <row r="134" spans="1:5" ht="13.2">
       <c r="A134" s="14">
         <v>2012</v>
       </c>
-      <c r="B134" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="13.2">
+      <c r="B134" s="14">
+        <v>0.61</v>
+      </c>
+      <c r="C134" s="14"/>
+    </row>
+    <row r="135" spans="1:5" ht="13.2">
       <c r="A135" s="14">
         <v>2013</v>
       </c>
-      <c r="B135" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="13.2">
+      <c r="B135" s="14">
+        <v>0.64</v>
+      </c>
+      <c r="C135" s="14"/>
+    </row>
+    <row r="136" spans="1:5" ht="13.2">
       <c r="A136" s="14">
         <v>2014</v>
       </c>
-      <c r="B136" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="13.2">
+      <c r="B136" s="14">
+        <v>0.73</v>
+      </c>
+      <c r="C136" s="14"/>
+    </row>
+    <row r="137" spans="1:5" ht="13.2">
       <c r="A137" s="14">
         <v>2015</v>
       </c>
-      <c r="B137" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="13.2">
+      <c r="B137" s="14">
+        <v>0.86</v>
+      </c>
+      <c r="C137" s="14"/>
+    </row>
+    <row r="138" spans="1:5" ht="13.2">
       <c r="A138" s="14">
         <v>2016</v>
       </c>
-      <c r="B138" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="13.2">
+      <c r="B138" s="14">
+        <v>0.98</v>
+      </c>
+      <c r="C138" s="14"/>
+    </row>
+    <row r="139" spans="1:5" ht="13.2">
       <c r="A139" s="14">
         <v>2017</v>
       </c>
-      <c r="B139" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="13.2">
+      <c r="B139" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="C139" s="14"/>
+    </row>
+    <row r="140" spans="1:5" ht="13.2">
       <c r="A140" s="14">
         <v>2018</v>
       </c>
-      <c r="B140" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C140" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="D140" s="35" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="13.2">
+      <c r="B140" s="14">
+        <v>0.82</v>
+      </c>
+      <c r="C140" s="14"/>
+      <c r="D140" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E140" s="35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="13.2">
       <c r="A141" s="14">
         <v>2019</v>
       </c>
       <c r="B141" s="29">
         <v>0.84</v>
       </c>
-      <c r="C141" s="14"/>
-    </row>
-    <row r="142" spans="1:4" ht="13.2">
+      <c r="C141" s="29"/>
+      <c r="D141" s="14"/>
+    </row>
+    <row r="142" spans="1:5" ht="13.2">
       <c r="A142" s="14">
         <v>2020</v>
       </c>
       <c r="B142" s="29">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" ht="13.2">
+      <c r="C142" s="29"/>
+    </row>
+    <row r="143" spans="1:5" ht="13.2">
       <c r="A143" s="14">
         <v>2021</v>
       </c>
       <c r="B143" s="29">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" ht="13.2">
+      <c r="C143" s="29"/>
+    </row>
+    <row r="144" spans="1:5" ht="13.2">
       <c r="A144" s="14">
         <v>2022</v>
       </c>
       <c r="B144" s="29">
         <v>0.94000000000000006</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" ht="13.2">
+      <c r="C144" s="29"/>
+    </row>
+    <row r="145" spans="1:5" ht="13.2">
       <c r="A145" s="14">
         <v>2023</v>
       </c>
       <c r="B145" s="29">
         <v>0.98000000000000009</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="13.2">
+      <c r="C145" s="29"/>
+    </row>
+    <row r="146" spans="1:5" ht="13.2">
       <c r="A146" s="14">
         <v>2024</v>
       </c>
       <c r="B146" s="29">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="13.2">
+        <v>1.2</v>
+      </c>
+      <c r="C146" s="29"/>
+    </row>
+    <row r="147" spans="1:5" ht="13.2">
       <c r="A147" s="14">
         <v>2025</v>
       </c>
       <c r="B147" s="29">
-        <v>1.03</v>
-      </c>
-      <c r="C147" s="37" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="13.2">
+        <v>1.28</v>
+      </c>
+      <c r="C147" s="29"/>
+      <c r="D147" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="13.2">
       <c r="A148" s="14">
         <v>2026</v>
       </c>
       <c r="B148" s="29">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="13.2">
+        <v>1.3</v>
+      </c>
+      <c r="C148" s="29"/>
+    </row>
+    <row r="149" spans="1:5" ht="13.2">
       <c r="A149" s="14">
         <v>2027</v>
       </c>
       <c r="B149" s="29">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="13.2">
+        <v>1.32</v>
+      </c>
+      <c r="C149" s="29"/>
+    </row>
+    <row r="150" spans="1:5" ht="13.2">
       <c r="A150" s="14">
         <v>2028</v>
       </c>
       <c r="B150" s="29">
-        <v>1.1600000000000001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="13.2">
+        <v>1.36</v>
+      </c>
+      <c r="C150" s="29"/>
+    </row>
+    <row r="151" spans="1:5" ht="13.2">
       <c r="A151" s="14">
         <v>2029</v>
       </c>
       <c r="B151" s="29">
-        <v>1.1700000000000002</v>
-      </c>
-      <c r="C151" s="38" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="13.2">
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="C151" s="29"/>
+      <c r="D151" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="13.2">
       <c r="A152" s="14">
         <v>2030</v>
       </c>
       <c r="B152" s="29">
-        <v>1.1900000000000002</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="13.2">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="C152" s="29"/>
+    </row>
+    <row r="153" spans="1:5" ht="13.2">
       <c r="A153" s="14">
         <v>2031</v>
       </c>
       <c r="B153" s="29">
-        <v>1.2400000000000002</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="13.2">
+        <v>1.4300000000000002</v>
+      </c>
+      <c r="C153" s="29"/>
+    </row>
+    <row r="154" spans="1:5" ht="13.2">
       <c r="A154" s="14">
         <v>2032</v>
       </c>
       <c r="B154" s="29">
-        <v>1.2500000000000002</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="13.2">
+        <v>1.4700000000000002</v>
+      </c>
+      <c r="C154" s="29"/>
+    </row>
+    <row r="155" spans="1:5" ht="13.2">
       <c r="A155" s="14">
         <v>2033</v>
       </c>
       <c r="B155" s="29">
-        <v>1.2800000000000002</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="13.2">
+        <v>1.5100000000000002</v>
+      </c>
+      <c r="C155" s="29"/>
+    </row>
+    <row r="156" spans="1:5" ht="13.2">
       <c r="A156" s="14">
         <v>2034</v>
       </c>
       <c r="B156" s="29">
-        <v>1.3200000000000003</v>
-      </c>
-      <c r="C156" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="D156" s="35" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="13.2">
+        <v>1.5500000000000003</v>
+      </c>
+      <c r="C156" s="29"/>
+      <c r="D156" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E156" s="35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="13.2">
       <c r="A157" s="14">
         <v>2035</v>
       </c>
       <c r="B157" s="29">
-        <v>1.3600000000000003</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="13.2">
+        <v>1.5700000000000003</v>
+      </c>
+      <c r="C157" s="29"/>
+    </row>
+    <row r="158" spans="1:5" ht="13.2">
       <c r="A158" s="14">
         <v>2036</v>
       </c>
       <c r="B158" s="29">
-        <v>1.3700000000000003</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="13.2">
+        <v>1.6100000000000003</v>
+      </c>
+      <c r="C158" s="29"/>
+    </row>
+    <row r="159" spans="1:5" ht="13.2">
       <c r="A159" s="14">
         <v>2037</v>
       </c>
       <c r="B159" s="29">
-        <v>1.4000000000000004</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="13.2">
+        <v>1.6300000000000003</v>
+      </c>
+      <c r="C159" s="29"/>
+    </row>
+    <row r="160" spans="1:5" ht="13.2">
       <c r="A160" s="14">
         <v>2038</v>
       </c>
       <c r="B160" s="29">
-        <v>1.4300000000000004</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="13.2">
+        <v>1.6700000000000004</v>
+      </c>
+      <c r="C160" s="29"/>
+    </row>
+    <row r="161" spans="1:3" ht="13.2">
       <c r="A161" s="14">
         <v>2039</v>
       </c>
       <c r="B161" s="29">
-        <v>1.4400000000000004</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="13.2">
+        <v>1.6900000000000004</v>
+      </c>
+      <c r="C161" s="29"/>
+    </row>
+    <row r="162" spans="1:3" ht="13.2">
       <c r="A162" s="14">
         <v>2040</v>
       </c>
       <c r="B162" s="29">
-        <v>1.4900000000000004</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="13.2">
+        <v>1.7300000000000004</v>
+      </c>
+      <c r="C162" s="29"/>
+    </row>
+    <row r="163" spans="1:3" ht="13.2">
       <c r="A163" s="14">
         <v>2041</v>
       </c>
       <c r="B163" s="29">
-        <v>1.5000000000000004</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="13.2">
+        <v>1.7700000000000005</v>
+      </c>
+      <c r="C163" s="29"/>
+    </row>
+    <row r="164" spans="1:3" ht="13.2">
       <c r="A164" s="14">
         <v>2042</v>
       </c>
       <c r="B164" s="29">
-        <v>1.5200000000000005</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="13.2">
+        <v>1.8000000000000005</v>
+      </c>
+      <c r="C164" s="29"/>
+    </row>
+    <row r="165" spans="1:3" ht="13.2">
       <c r="A165" s="14">
         <v>2043</v>
       </c>
       <c r="B165" s="29">
-        <v>1.5300000000000005</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="13.2">
+        <v>1.8200000000000005</v>
+      </c>
+      <c r="C165" s="29"/>
+    </row>
+    <row r="166" spans="1:3" ht="13.2">
       <c r="A166" s="14">
         <v>2044</v>
       </c>
       <c r="B166" s="29">
-        <v>1.5800000000000005</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="13.2">
+        <v>1.8600000000000005</v>
+      </c>
+      <c r="C166" s="29"/>
+    </row>
+    <row r="167" spans="1:3" ht="13.2">
       <c r="A167" s="14">
         <v>2045</v>
       </c>
       <c r="B167" s="29">
-        <v>1.6000000000000005</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="13.2">
+        <v>1.9000000000000006</v>
+      </c>
+      <c r="C167" s="29"/>
+    </row>
+    <row r="168" spans="1:3" ht="13.2">
       <c r="A168" s="14">
         <v>2046</v>
       </c>
       <c r="B168" s="29">
-        <v>1.6500000000000006</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="13.2">
+        <v>1.9200000000000006</v>
+      </c>
+      <c r="C168" s="29"/>
+    </row>
+    <row r="169" spans="1:3" ht="13.2">
       <c r="A169" s="14">
         <v>2047</v>
       </c>
       <c r="B169" s="29">
-        <v>1.6900000000000006</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="13.2">
+        <v>1.9600000000000006</v>
+      </c>
+      <c r="C169" s="29"/>
+    </row>
+    <row r="170" spans="1:3" ht="13.2">
       <c r="A170" s="14">
         <v>2048</v>
       </c>
       <c r="B170" s="29">
-        <v>1.7000000000000006</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="13.2">
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="C170" s="29"/>
+    </row>
+    <row r="171" spans="1:3" ht="13.2">
       <c r="A171" s="14">
         <v>2049</v>
       </c>
       <c r="B171" s="29">
-        <v>1.7200000000000006</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="13.2">
+        <v>2.0400000000000005</v>
+      </c>
+      <c r="C171" s="29"/>
+    </row>
+    <row r="172" spans="1:3" ht="13.2">
       <c r="A172" s="14">
         <v>2050</v>
       </c>
       <c r="B172" s="29">
-        <v>1.7700000000000007</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="13.2">
+        <v>2.0800000000000005</v>
+      </c>
+      <c r="C172" s="29"/>
+    </row>
+    <row r="173" spans="1:3" ht="13.2">
       <c r="A173" s="14">
         <v>2051</v>
       </c>
       <c r="B173" s="29">
-        <v>1.7900000000000007</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="13.2">
+        <v>2.1100000000000003</v>
+      </c>
+      <c r="C173" s="29"/>
+    </row>
+    <row r="174" spans="1:3" ht="13.2">
       <c r="A174" s="14">
         <v>2052</v>
       </c>
       <c r="B174" s="29">
-        <v>1.8200000000000007</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="13.2">
+        <v>2.14</v>
+      </c>
+      <c r="C174" s="29"/>
+    </row>
+    <row r="175" spans="1:3" ht="13.2">
       <c r="A175" s="14">
         <v>2053</v>
       </c>
       <c r="B175" s="29">
-        <v>1.8700000000000008</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="13.2">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="C175" s="29"/>
+    </row>
+    <row r="176" spans="1:3" ht="13.2">
       <c r="A176" s="14">
         <v>2054</v>
       </c>
       <c r="B176" s="29">
-        <v>1.9000000000000008</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="13.2">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C176" s="29"/>
+    </row>
+    <row r="177" spans="1:4" ht="13.2">
       <c r="A177" s="14">
         <v>2055</v>
       </c>
       <c r="B177" s="29">
-        <v>1.9500000000000008</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="13.2">
+        <v>2.2600000000000002</v>
+      </c>
+      <c r="C177" s="29"/>
+    </row>
+    <row r="178" spans="1:4" ht="13.2">
       <c r="A178" s="14">
         <v>2056</v>
       </c>
       <c r="B178" s="29">
-        <v>1.9700000000000009</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="13.2">
+        <v>2.29</v>
+      </c>
+      <c r="C178" s="29"/>
+    </row>
+    <row r="179" spans="1:4" ht="13.2">
       <c r="A179" s="14">
         <v>2057</v>
       </c>
       <c r="B179" s="29">
-        <v>2.0000000000000009</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="13.2">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C179" s="29"/>
+    </row>
+    <row r="180" spans="1:4" ht="13.2">
       <c r="A180" s="14">
         <v>2058</v>
       </c>
       <c r="B180" s="29">
-        <v>2.0200000000000009</v>
-      </c>
-      <c r="C180" s="38" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="13.2">
+        <v>2.3499999999999996</v>
+      </c>
+      <c r="C180" s="29"/>
+      <c r="D180" s="38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="13.2">
       <c r="A181" s="14">
         <v>2059</v>
       </c>
       <c r="B181" s="29">
-        <v>2.0400000000000009</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="13.2">
+        <v>2.3799999999999994</v>
+      </c>
+      <c r="C181" s="29"/>
+    </row>
+    <row r="182" spans="1:4" ht="13.2">
       <c r="A182" s="14">
         <v>2060</v>
       </c>
       <c r="B182" s="29">
-        <v>2.0700000000000007</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="13.2">
+        <v>2.3999999999999995</v>
+      </c>
+      <c r="C182" s="29"/>
+    </row>
+    <row r="183" spans="1:4" ht="13.2">
       <c r="A183" s="14">
         <v>2061</v>
       </c>
       <c r="B183" s="29">
-        <v>2.1200000000000006</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="13.2">
+        <v>2.4299999999999993</v>
+      </c>
+      <c r="C183" s="29"/>
+    </row>
+    <row r="184" spans="1:4" ht="13.2">
       <c r="A184" s="14">
         <v>2062</v>
       </c>
       <c r="B184" s="29">
-        <v>2.1600000000000006</v>
-      </c>
-      <c r="C184" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="13.2">
+        <v>2.4699999999999993</v>
+      </c>
+      <c r="C184" s="29"/>
+      <c r="D184" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="13.2">
       <c r="A185" s="14">
         <v>2063</v>
       </c>
       <c r="B185" s="29">
-        <v>2.1900000000000004</v>
-      </c>
-      <c r="C185" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="13.2">
+        <v>2.5099999999999993</v>
+      </c>
+      <c r="C185" s="29"/>
+      <c r="D185" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="13.2">
       <c r="A186" s="14">
         <v>2064</v>
       </c>
       <c r="B186" s="29">
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="13.2">
+        <v>2.5399999999999991</v>
+      </c>
+      <c r="C186" s="29"/>
+    </row>
+    <row r="187" spans="1:4" ht="13.2">
       <c r="A187" s="14">
         <v>2065</v>
       </c>
       <c r="B187" s="29">
-        <v>2.2600000000000002</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="13.2">
+        <v>2.5599999999999992</v>
+      </c>
+      <c r="C187" s="29"/>
+    </row>
+    <row r="188" spans="1:4" ht="13.2">
       <c r="A188" s="14">
         <v>2066</v>
       </c>
       <c r="B188" s="29">
-        <v>2.31</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="13.2">
+        <v>2.5999999999999992</v>
+      </c>
+      <c r="C188" s="29"/>
+    </row>
+    <row r="189" spans="1:4" ht="13.2">
       <c r="A189" s="14">
         <v>2067</v>
       </c>
       <c r="B189" s="29">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="13.2">
+        <v>2.629999999999999</v>
+      </c>
+      <c r="C189" s="29"/>
+    </row>
+    <row r="190" spans="1:4" ht="13.2">
       <c r="A190" s="14">
         <v>2068</v>
       </c>
       <c r="B190" s="29">
-        <v>2.36</v>
-      </c>
-      <c r="C190" s="35" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="13.2">
+        <v>2.649999999999999</v>
+      </c>
+      <c r="C190" s="29"/>
+      <c r="D190" s="35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="13.2">
       <c r="A191" s="14">
         <v>2069</v>
       </c>
       <c r="B191" s="29">
-        <v>2.4099999999999997</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="13.2">
+        <v>2.6799999999999988</v>
+      </c>
+      <c r="C191" s="29"/>
+    </row>
+    <row r="192" spans="1:4" ht="13.2">
       <c r="A192" s="14">
         <v>2070</v>
       </c>
       <c r="B192" s="29">
-        <v>2.4199999999999995</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="13.2">
+        <v>2.6999999999999988</v>
+      </c>
+      <c r="C192" s="29"/>
+    </row>
+    <row r="193" spans="1:4" ht="13.2">
       <c r="A193" s="14">
         <v>2071</v>
       </c>
       <c r="B193" s="29">
-        <v>2.4699999999999993</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="13.2">
+        <v>2.7199999999999989</v>
+      </c>
+      <c r="C193" s="29"/>
+    </row>
+    <row r="194" spans="1:4" ht="13.2">
       <c r="A194" s="14">
         <v>2072</v>
       </c>
       <c r="B194" s="29">
-        <v>2.5199999999999991</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="13.2">
+        <v>2.7399999999999989</v>
+      </c>
+      <c r="C194" s="29"/>
+    </row>
+    <row r="195" spans="1:4" ht="13.2">
       <c r="A195" s="14">
         <v>2073</v>
       </c>
       <c r="B195" s="29">
-        <v>2.5299999999999989</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="13.2">
+        <v>2.7799999999999989</v>
+      </c>
+      <c r="C195" s="29"/>
+    </row>
+    <row r="196" spans="1:4" ht="13.2">
       <c r="A196" s="14">
         <v>2074</v>
       </c>
       <c r="B196" s="29">
-        <v>2.569999999999999</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="13.2">
+        <v>2.8099999999999987</v>
+      </c>
+      <c r="C196" s="29"/>
+    </row>
+    <row r="197" spans="1:4" ht="13.2">
       <c r="A197" s="14">
         <v>2075</v>
       </c>
       <c r="B197" s="29">
-        <v>2.609999999999999</v>
-      </c>
-      <c r="C197" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="13.2">
+        <v>2.8399999999999985</v>
+      </c>
+      <c r="C197" s="29"/>
+      <c r="D197" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="13.2">
       <c r="A198" s="14">
         <v>2076</v>
       </c>
       <c r="B198" s="29">
-        <v>2.6599999999999988</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="13.2">
+        <v>2.8699999999999983</v>
+      </c>
+      <c r="C198" s="29"/>
+    </row>
+    <row r="199" spans="1:4" ht="13.2">
       <c r="A199" s="14">
         <v>2077</v>
       </c>
       <c r="B199" s="29">
-        <v>2.6899999999999986</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="13.2">
+        <v>2.9099999999999984</v>
+      </c>
+      <c r="C199" s="29"/>
+    </row>
+    <row r="200" spans="1:4" ht="13.2">
       <c r="A200" s="14">
         <v>2078</v>
       </c>
       <c r="B200" s="29">
-        <v>2.7099999999999986</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="13.2">
+        <v>2.9499999999999984</v>
+      </c>
+      <c r="C200" s="29"/>
+    </row>
+    <row r="201" spans="1:4" ht="13.2">
       <c r="A201" s="14">
         <v>2079</v>
       </c>
       <c r="B201" s="29">
-        <v>2.7499999999999987</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="13.2">
+        <v>2.9899999999999984</v>
+      </c>
+      <c r="C201" s="29"/>
+    </row>
+    <row r="202" spans="1:4" ht="13.2">
       <c r="A202" s="14">
         <v>2080</v>
       </c>
       <c r="B202" s="29">
-        <v>2.7999999999999985</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="13.2">
+        <v>3.4</v>
+      </c>
+      <c r="C202" s="29"/>
+    </row>
+    <row r="203" spans="1:4" ht="13.2">
       <c r="A203" s="14">
         <v>2081</v>
       </c>
       <c r="B203" s="29">
-        <v>2.8299999999999983</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="13.2">
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="C203" s="29"/>
+    </row>
+    <row r="204" spans="1:4" ht="13.2">
       <c r="A204" s="14">
         <v>2082</v>
       </c>
       <c r="B204" s="29">
-        <v>2.8599999999999981</v>
-      </c>
-      <c r="C204" s="37" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="13.2">
+        <v>3.51</v>
+      </c>
+      <c r="C204" s="29"/>
+      <c r="D204" s="37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="13.2">
       <c r="A205" s="14">
         <v>2083</v>
       </c>
       <c r="B205" s="29">
-        <v>2.8899999999999979</v>
-      </c>
-      <c r="C205" s="37" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="13.2">
+        <v>3.55</v>
+      </c>
+      <c r="C205" s="29"/>
+      <c r="D205" s="37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="13.2">
       <c r="A206" s="14">
         <v>2084</v>
       </c>
       <c r="B206" s="29">
-        <v>2.9299999999999979</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="13.2">
+        <v>3.59</v>
+      </c>
+      <c r="C206" s="29"/>
+    </row>
+    <row r="207" spans="1:4" ht="13.2">
       <c r="A207" s="14">
         <v>2085</v>
       </c>
       <c r="B207" s="29">
-        <v>2.9399999999999977</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="13.2">
+        <v>3.63</v>
+      </c>
+      <c r="C207" s="29"/>
+    </row>
+    <row r="208" spans="1:4" ht="13.2">
       <c r="A208" s="14">
         <v>2086</v>
       </c>
       <c r="B208" s="29">
-        <v>2.9599999999999977</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="13.2">
+        <v>3.69</v>
+      </c>
+      <c r="C208" s="29"/>
+    </row>
+    <row r="209" spans="1:4" ht="13.2">
       <c r="A209" s="14">
         <v>2087</v>
       </c>
       <c r="B209" s="29">
-        <v>2.9699999999999975</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="13.2">
+        <v>3.73</v>
+      </c>
+      <c r="C209" s="29"/>
+    </row>
+    <row r="210" spans="1:4" ht="13.2">
       <c r="A210" s="14">
         <v>2088</v>
       </c>
       <c r="B210" s="29">
-        <v>3.2399999999999975</v>
+        <v>3.79</v>
       </c>
       <c r="C210" s="29"/>
-    </row>
-    <row r="211" spans="1:3" ht="13.2">
+      <c r="D210" s="29"/>
+    </row>
+    <row r="211" spans="1:4" ht="13.2">
       <c r="A211" s="14">
         <v>2089</v>
       </c>
       <c r="B211" s="29">
-        <v>3.2999999999999976</v>
+        <v>3.85</v>
       </c>
       <c r="C211" s="29"/>
-    </row>
-    <row r="212" spans="1:3" ht="13.2">
+      <c r="D211" s="29"/>
+    </row>
+    <row r="212" spans="1:4" ht="13.2">
       <c r="A212" s="14">
         <v>2090</v>
       </c>
       <c r="B212" s="29">
-        <v>3.2899999999999974</v>
+        <v>3.9</v>
       </c>
       <c r="C212" s="29"/>
-    </row>
-    <row r="213" spans="1:3" ht="13.2">
+      <c r="D212" s="29"/>
+    </row>
+    <row r="213" spans="1:4" ht="13.2">
       <c r="A213" s="14">
         <v>2091</v>
       </c>
       <c r="B213" s="29">
-        <v>3.3499999999999974</v>
+        <v>3.96</v>
       </c>
       <c r="C213" s="29"/>
-    </row>
-    <row r="214" spans="1:3" ht="13.2">
+      <c r="D213" s="29"/>
+    </row>
+    <row r="214" spans="1:4" ht="13.2">
       <c r="A214" s="14">
         <v>2092</v>
       </c>
       <c r="B214" s="29">
-        <v>3.3799999999999972</v>
+        <v>4</v>
       </c>
       <c r="C214" s="29"/>
-    </row>
-    <row r="215" spans="1:3" ht="13.2">
+      <c r="D214" s="29"/>
+    </row>
+    <row r="215" spans="1:4" ht="13.2">
       <c r="A215" s="14">
         <v>2093</v>
       </c>
       <c r="B215" s="29">
-        <v>3.4299999999999971</v>
+        <v>4.05</v>
       </c>
       <c r="C215" s="29"/>
-    </row>
-    <row r="216" spans="1:3" ht="13.2">
+      <c r="D215" s="29"/>
+    </row>
+    <row r="216" spans="1:4" ht="13.2">
       <c r="A216" s="14">
         <v>2094</v>
       </c>
       <c r="B216" s="29">
-        <v>3.4899999999999967</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C216" s="29"/>
-    </row>
-    <row r="217" spans="1:3" ht="13.2">
+      <c r="D216" s="29"/>
+    </row>
+    <row r="217" spans="1:4" ht="13.2">
       <c r="A217" s="14">
         <v>2095</v>
       </c>
       <c r="B217" s="29">
-        <v>3.4799999999999969</v>
+        <v>4.1599999999999993</v>
       </c>
       <c r="C217" s="29"/>
-    </row>
-    <row r="218" spans="1:3" ht="13.2">
+      <c r="D217" s="29"/>
+    </row>
+    <row r="218" spans="1:4" ht="13.2">
       <c r="A218" s="14">
         <v>2096</v>
       </c>
       <c r="B218" s="29">
-        <v>3.5099999999999967</v>
+        <v>4.2199999999999989</v>
       </c>
       <c r="C218" s="29"/>
-    </row>
-    <row r="219" spans="1:3" ht="13.2">
+      <c r="D218" s="29"/>
+    </row>
+    <row r="219" spans="1:4" ht="13.2">
       <c r="A219" s="14">
         <v>2097</v>
       </c>
       <c r="B219" s="29">
-        <v>3.5399999999999965</v>
+        <v>4.2799999999999985</v>
       </c>
       <c r="C219" s="29"/>
-    </row>
-    <row r="220" spans="1:3" ht="13.2">
+      <c r="D219" s="29"/>
+    </row>
+    <row r="220" spans="1:4" ht="13.2">
       <c r="A220" s="14">
         <v>2098</v>
       </c>
       <c r="B220" s="29">
-        <v>3.5699999999999967</v>
+        <v>4.3199999999999985</v>
       </c>
       <c r="C220" s="29"/>
-    </row>
-    <row r="221" spans="1:3" ht="13.2">
+      <c r="D220" s="29"/>
+    </row>
+    <row r="221" spans="1:4" ht="13.2">
       <c r="A221" s="14">
         <v>2099</v>
       </c>
       <c r="B221" s="29">
-        <v>3.5399999999999965</v>
+        <v>4.3799999999999981</v>
       </c>
       <c r="C221" s="29"/>
-    </row>
-    <row r="222" spans="1:3" ht="13.2">
+      <c r="D221" s="29"/>
+    </row>
+    <row r="222" spans="1:4" ht="13.2">
       <c r="A222" s="14">
         <v>2100</v>
       </c>
       <c r="B222" s="29">
-        <v>3.5799999999999965</v>
+        <v>4.4299999999999979</v>
       </c>
       <c r="C222" s="29"/>
-    </row>
-    <row r="223" spans="1:3" ht="13.2">
+      <c r="D222" s="29"/>
+    </row>
+    <row r="223" spans="1:4" ht="13.2">
       <c r="A223" s="14">
         <v>2101</v>
       </c>
       <c r="B223" s="29">
-        <v>3.6199999999999966</v>
+        <v>4.4799999999999978</v>
       </c>
       <c r="C223" s="29"/>
-    </row>
-    <row r="224" spans="1:3" ht="13.2">
+      <c r="D223" s="29"/>
+    </row>
+    <row r="224" spans="1:4" ht="13.2">
       <c r="A224" s="14">
         <v>2102</v>
       </c>
       <c r="B224" s="29">
-        <v>3.6299999999999963</v>
+        <v>4.5199999999999978</v>
       </c>
       <c r="C224" s="29"/>
-    </row>
-    <row r="225" spans="1:3" ht="13.2">
+      <c r="D224" s="29"/>
+    </row>
+    <row r="225" spans="1:4" ht="13.2">
       <c r="A225" s="14">
         <v>2103</v>
       </c>
       <c r="B225" s="29">
-        <v>3.6599999999999961</v>
+        <v>4.5599999999999978</v>
       </c>
       <c r="C225" s="29"/>
-    </row>
-    <row r="226" spans="1:3" ht="13.2">
+      <c r="D225" s="29"/>
+    </row>
+    <row r="226" spans="1:4" ht="13.2">
       <c r="A226" s="14">
         <v>2104</v>
       </c>
       <c r="B226" s="29">
-        <v>3.6699999999999959</v>
+        <v>4.5999999999999979</v>
       </c>
       <c r="C226" s="29"/>
-    </row>
-    <row r="227" spans="1:3" ht="13.2">
+      <c r="D226" s="29"/>
+    </row>
+    <row r="227" spans="1:4" ht="13.2">
       <c r="A227" s="14">
         <v>2105</v>
       </c>
       <c r="B227" s="29">
-        <v>3.7099999999999955</v>
+        <v>4.6399999999999979</v>
       </c>
       <c r="C227" s="29"/>
-    </row>
-    <row r="228" spans="1:3" ht="13.2">
+      <c r="D227" s="29"/>
+    </row>
+    <row r="228" spans="1:4" ht="13.2">
       <c r="A228" s="14">
         <v>2106</v>
       </c>
       <c r="B228" s="29">
-        <v>3.7599999999999953</v>
+        <v>4.6999999999999975</v>
       </c>
       <c r="C228" s="29"/>
-    </row>
-    <row r="229" spans="1:3" ht="13.2">
+      <c r="D228" s="29"/>
+    </row>
+    <row r="229" spans="1:4" ht="13.2">
       <c r="A229" s="14">
         <v>2107</v>
       </c>
       <c r="B229" s="29">
-        <v>3.8199999999999954</v>
+        <v>4.7399999999999975</v>
       </c>
       <c r="C229" s="29"/>
-    </row>
-    <row r="230" spans="1:3" ht="13.2">
+      <c r="D229" s="29"/>
+    </row>
+    <row r="230" spans="1:4" ht="13.2">
       <c r="A230" s="14">
         <v>2108</v>
       </c>
       <c r="B230" s="29">
-        <v>3.859999999999995</v>
+        <v>4.7799999999999976</v>
       </c>
       <c r="C230" s="29"/>
-    </row>
-    <row r="231" spans="1:3" ht="13.2">
+      <c r="D230" s="29"/>
+    </row>
+    <row r="231" spans="1:4" ht="13.2">
       <c r="A231" s="14">
         <v>2109</v>
       </c>
       <c r="B231" s="29">
-        <v>3.8699999999999952</v>
+        <v>4.8199999999999976</v>
       </c>
       <c r="C231" s="29"/>
-    </row>
-    <row r="232" spans="1:3" ht="13.2">
+      <c r="D231" s="29"/>
+    </row>
+    <row r="232" spans="1:4" ht="13.2">
       <c r="A232" s="14">
         <v>2110</v>
       </c>
       <c r="B232" s="29">
-        <v>3.919999999999995</v>
+        <v>4.8699999999999974</v>
       </c>
       <c r="C232" s="29"/>
-    </row>
-    <row r="233" spans="1:3" ht="13.2">
+      <c r="D232" s="29"/>
+    </row>
+    <row r="233" spans="1:4" ht="13.2">
       <c r="A233" s="14">
         <v>2111</v>
       </c>
       <c r="B233" s="29">
-        <v>3.9999999999999947</v>
+        <v>4.9099999999999975</v>
       </c>
       <c r="C233" s="29"/>
-    </row>
-    <row r="234" spans="1:3" ht="13.2">
+      <c r="D233" s="29"/>
+    </row>
+    <row r="234" spans="1:4" ht="13.2">
       <c r="A234" s="14">
         <v>2112</v>
       </c>
       <c r="B234" s="29">
-        <v>4.0299999999999949</v>
+        <v>4.9499999999999975</v>
       </c>
       <c r="C234" s="29"/>
-    </row>
-    <row r="235" spans="1:3" ht="13.2">
+      <c r="D234" s="29"/>
+    </row>
+    <row r="235" spans="1:4" ht="13.2">
       <c r="A235" s="14">
         <v>2113</v>
       </c>
       <c r="B235" s="29">
-        <v>4.0499999999999945</v>
+        <v>4.9999999999999973</v>
       </c>
       <c r="C235" s="29"/>
-    </row>
-    <row r="236" spans="1:3" ht="13.2">
+      <c r="D235" s="29"/>
+    </row>
+    <row r="236" spans="1:4" ht="13.2">
       <c r="A236" s="14">
         <v>2114</v>
       </c>
       <c r="B236" s="29">
-        <v>4.1099999999999941</v>
+        <v>5.5</v>
       </c>
       <c r="C236" s="29"/>
-    </row>
-    <row r="237" spans="1:3" ht="13.2">
+      <c r="D236" s="29"/>
+    </row>
+    <row r="237" spans="1:4" ht="13.2">
       <c r="A237" s="14">
         <v>2115</v>
       </c>
       <c r="B237" s="29">
-        <v>4.1699999999999937</v>
+        <v>5.57</v>
       </c>
       <c r="C237" s="29"/>
-    </row>
-    <row r="238" spans="1:3" ht="13.2">
+      <c r="D237" s="29"/>
+    </row>
+    <row r="238" spans="1:4" ht="13.2">
       <c r="A238" s="14">
         <v>2116</v>
       </c>
       <c r="B238" s="29">
-        <v>4.199999999999994</v>
+        <v>5.63</v>
       </c>
       <c r="C238" s="29"/>
-    </row>
-    <row r="239" spans="1:3" ht="13.2">
+      <c r="D238" s="29"/>
+    </row>
+    <row r="239" spans="1:4" ht="13.2">
       <c r="A239" s="14">
         <v>2117</v>
       </c>
       <c r="B239" s="29">
-        <v>4.2299999999999933</v>
+        <v>5.6899999999999995</v>
       </c>
       <c r="C239" s="29"/>
-    </row>
-    <row r="240" spans="1:3" ht="13.2">
+      <c r="D239" s="29"/>
+    </row>
+    <row r="240" spans="1:4" ht="13.2">
       <c r="A240" s="14">
         <v>2118</v>
       </c>
       <c r="B240" s="29">
-        <v>4.2199999999999935</v>
+        <v>5.7399999999999993</v>
       </c>
       <c r="C240" s="29"/>
-    </row>
-    <row r="241" spans="1:3" ht="13.2">
+      <c r="D240" s="29"/>
+    </row>
+    <row r="241" spans="1:4" ht="13.2">
       <c r="A241" s="14">
         <v>2119</v>
       </c>
       <c r="B241" s="29">
-        <v>4.2599999999999936</v>
+        <v>5.7999999999999989</v>
       </c>
       <c r="C241" s="29"/>
-    </row>
-    <row r="242" spans="1:3" ht="13.2">
+      <c r="D241" s="29"/>
+    </row>
+    <row r="242" spans="1:4" ht="13.2">
       <c r="A242" s="14">
         <v>2120</v>
       </c>
       <c r="B242" s="29">
-        <v>4.2899999999999929</v>
+        <v>5.8499999999999988</v>
       </c>
       <c r="C242" s="29"/>
-    </row>
-    <row r="243" spans="1:3" ht="13.2">
+      <c r="D242" s="29"/>
+    </row>
+    <row r="243" spans="1:4" ht="13.2">
       <c r="A243" s="14">
         <v>2121</v>
       </c>
       <c r="B243" s="29">
-        <v>4.3199999999999932</v>
+        <v>5.8999999999999986</v>
       </c>
       <c r="C243" s="29"/>
-    </row>
-    <row r="244" spans="1:3" ht="13.2">
+      <c r="D243" s="29"/>
+    </row>
+    <row r="244" spans="1:4" ht="13.2">
       <c r="A244" s="14">
         <v>2122</v>
       </c>
       <c r="B244" s="29">
-        <v>4.3299999999999939</v>
+        <v>5.9699999999999989</v>
       </c>
       <c r="C244" s="29"/>
-    </row>
-    <row r="245" spans="1:3" ht="13.2">
+      <c r="D244" s="29"/>
+    </row>
+    <row r="245" spans="1:4" ht="13.2">
       <c r="A245" s="14">
         <v>2123</v>
       </c>
       <c r="B245" s="29">
-        <v>4.329999999999993</v>
+        <v>6.0199999999999987</v>
       </c>
       <c r="C245" s="29"/>
-    </row>
-    <row r="246" spans="1:3" ht="13.2">
+      <c r="D245" s="29"/>
+    </row>
+    <row r="246" spans="1:4" ht="13.2">
       <c r="A246" s="14">
         <v>2124</v>
       </c>
       <c r="B246" s="29">
-        <v>4.3999999999999932</v>
+        <v>6.0699999999999985</v>
       </c>
       <c r="C246" s="29"/>
-    </row>
-    <row r="247" spans="1:3" ht="13.2">
+      <c r="D246" s="29"/>
+    </row>
+    <row r="247" spans="1:4" ht="13.2">
       <c r="A247" s="14">
         <v>2125</v>
       </c>
       <c r="B247" s="29">
-        <v>4.3799999999999928</v>
+        <v>6.1199999999999983</v>
       </c>
       <c r="C247" s="29"/>
-    </row>
-    <row r="248" spans="1:3" ht="13.2">
+      <c r="D247" s="29"/>
+    </row>
+    <row r="248" spans="1:4" ht="13.2">
       <c r="A248" s="14">
         <v>2126</v>
       </c>
       <c r="B248" s="29">
-        <v>4.3999999999999924</v>
+        <v>6.1899999999999986</v>
       </c>
       <c r="C248" s="29"/>
-    </row>
-    <row r="249" spans="1:3" ht="13.2">
+      <c r="D248" s="29"/>
+    </row>
+    <row r="249" spans="1:4" ht="13.2">
       <c r="A249" s="14">
         <v>2127</v>
       </c>
       <c r="B249" s="29">
-        <v>4.4099999999999921</v>
+        <v>6.2399999999999984</v>
       </c>
       <c r="C249" s="29"/>
-    </row>
-    <row r="250" spans="1:3" ht="13.2">
+      <c r="D249" s="29"/>
+    </row>
+    <row r="250" spans="1:4" ht="13.2">
       <c r="A250" s="14">
         <v>2128</v>
       </c>
       <c r="B250" s="29">
-        <v>4.4699999999999918</v>
+        <v>6.299999999999998</v>
       </c>
       <c r="C250" s="29"/>
-    </row>
-    <row r="251" spans="1:3" ht="13.2">
+      <c r="D250" s="29"/>
+    </row>
+    <row r="251" spans="1:4" ht="13.2">
       <c r="A251" s="14">
         <v>2129</v>
       </c>
       <c r="B251" s="29">
-        <v>4.5099999999999927</v>
+        <v>6.3499999999999979</v>
       </c>
       <c r="C251" s="29"/>
-    </row>
-    <row r="252" spans="1:3" ht="13.2">
+      <c r="D251" s="29"/>
+    </row>
+    <row r="252" spans="1:4" ht="13.2">
       <c r="A252" s="14">
         <v>2130</v>
       </c>
       <c r="B252" s="29">
-        <v>4.5699999999999923</v>
+        <v>6.4099999999999975</v>
       </c>
       <c r="C252" s="29"/>
-    </row>
-    <row r="253" spans="1:3" ht="13.2">
+      <c r="D252" s="29"/>
+    </row>
+    <row r="253" spans="1:4" ht="13.2">
       <c r="A253" s="14">
         <v>2131</v>
       </c>
       <c r="B253" s="29">
-        <v>4.5999999999999925</v>
+        <v>6.4599999999999973</v>
       </c>
       <c r="C253" s="29"/>
-    </row>
-    <row r="254" spans="1:3" ht="13.2">
+      <c r="D253" s="29"/>
+    </row>
+    <row r="254" spans="1:4" ht="13.2">
       <c r="A254" s="14">
         <v>2132</v>
       </c>
       <c r="B254" s="29">
-        <v>4.5899999999999919</v>
+        <v>6.5099999999999971</v>
       </c>
       <c r="C254" s="29"/>
-    </row>
-    <row r="255" spans="1:3" ht="13.2">
+      <c r="D254" s="29"/>
+    </row>
+    <row r="255" spans="1:4" ht="13.2">
       <c r="A255" s="14">
         <v>2133</v>
       </c>
       <c r="B255" s="29">
-        <v>4.6599999999999921</v>
+        <v>6.5799999999999974</v>
       </c>
       <c r="C255" s="29"/>
-    </row>
-    <row r="256" spans="1:3" ht="13.2">
+      <c r="D255" s="29"/>
+    </row>
+    <row r="256" spans="1:4" ht="13.2">
       <c r="A256" s="14">
         <v>2134</v>
       </c>
       <c r="B256" s="29">
-        <v>4.709999999999992</v>
+        <v>6.639999999999997</v>
       </c>
       <c r="C256" s="29"/>
-    </row>
-    <row r="257" spans="1:3" ht="13.2">
+      <c r="D256" s="29"/>
+    </row>
+    <row r="257" spans="1:4" ht="13.2">
       <c r="A257" s="14">
         <v>2135</v>
       </c>
       <c r="B257" s="29">
-        <v>4.6999999999999922</v>
+        <v>6.6999999999999966</v>
       </c>
       <c r="C257" s="29"/>
-    </row>
-    <row r="258" spans="1:3" ht="13.2">
+      <c r="D257" s="29"/>
+    </row>
+    <row r="258" spans="1:4" ht="13.2">
       <c r="A258" s="14">
         <v>2136</v>
       </c>
       <c r="B258" s="29">
-        <v>4.7399999999999913</v>
+        <v>6.7599999999999962</v>
       </c>
       <c r="C258" s="29"/>
-    </row>
-    <row r="259" spans="1:3" ht="13.2">
+      <c r="D258" s="29"/>
+    </row>
+    <row r="259" spans="1:4" ht="13.2">
       <c r="A259" s="14">
         <v>2137</v>
       </c>
       <c r="B259" s="29">
-        <v>4.7999999999999918</v>
+        <v>6.8099999999999961</v>
       </c>
       <c r="C259" s="29"/>
-    </row>
-    <row r="260" spans="1:3" ht="13.2">
+      <c r="D259" s="29"/>
+    </row>
+    <row r="260" spans="1:4" ht="13.2">
       <c r="A260" s="14">
         <v>2138</v>
       </c>
       <c r="B260" s="29">
-        <v>4.7999999999999918</v>
+        <v>6.8699999999999957</v>
       </c>
       <c r="C260" s="29"/>
-    </row>
-    <row r="261" spans="1:3" ht="13.2">
+      <c r="D260" s="29"/>
+    </row>
+    <row r="261" spans="1:4" ht="13.2">
       <c r="A261" s="14">
         <v>2139</v>
       </c>
       <c r="B261" s="29">
-        <v>4.8499999999999917</v>
+        <v>6.9399999999999959</v>
       </c>
       <c r="C261" s="29"/>
-    </row>
-    <row r="262" spans="1:3" ht="13.2">
+      <c r="D261" s="29"/>
+    </row>
+    <row r="262" spans="1:4" ht="13.2">
       <c r="A262" s="14">
         <v>2140</v>
       </c>
       <c r="B262" s="29">
-        <v>4.9199999999999919</v>
+        <v>6.9999999999999956</v>
       </c>
       <c r="C262" s="29"/>
-    </row>
-    <row r="263" spans="1:3" ht="13.2">
+      <c r="D262" s="29"/>
+    </row>
+    <row r="263" spans="1:4" ht="13.2">
       <c r="A263" s="14">
         <v>2141</v>
       </c>
       <c r="B263" s="29">
-        <v>4.9199999999999919</v>
+        <v>7.0699999999999958</v>
       </c>
       <c r="C263" s="29"/>
-    </row>
-    <row r="264" spans="1:3" ht="13.2">
+      <c r="D263" s="29"/>
+    </row>
+    <row r="264" spans="1:4" ht="13.2">
       <c r="A264" s="14">
         <v>2142</v>
       </c>
       <c r="B264" s="29">
-        <v>4.9299999999999908</v>
+        <v>7.1299999999999955</v>
       </c>
       <c r="C264" s="29"/>
-    </row>
-    <row r="265" spans="1:3" ht="13.2">
+      <c r="D264" s="29"/>
+    </row>
+    <row r="265" spans="1:4" ht="13.2">
       <c r="A265" s="14">
         <v>2143</v>
       </c>
       <c r="B265" s="29">
-        <v>4.9599999999999911</v>
+        <v>7.1799999999999953</v>
       </c>
       <c r="C265" s="29"/>
-    </row>
-    <row r="266" spans="1:3" ht="13.2">
+      <c r="D265" s="29"/>
+    </row>
+    <row r="266" spans="1:4" ht="13.2">
       <c r="A266" s="14">
         <v>2144</v>
       </c>
       <c r="B266" s="29">
-        <v>4.9699999999999909</v>
+        <v>7.2399999999999949</v>
       </c>
       <c r="C266" s="29"/>
-    </row>
-    <row r="267" spans="1:3" ht="13.2">
+      <c r="D266" s="29"/>
+    </row>
+    <row r="267" spans="1:4" ht="13.2">
       <c r="A267" s="14">
         <v>2145</v>
       </c>
       <c r="B267" s="29">
-        <v>4.96999999999999</v>
+        <v>7.2899999999999947</v>
       </c>
       <c r="C267" s="29"/>
-    </row>
-    <row r="268" spans="1:3" ht="13.2">
+      <c r="D267" s="29"/>
+    </row>
+    <row r="268" spans="1:4" ht="13.2">
       <c r="A268" s="14">
         <v>2146</v>
       </c>
       <c r="B268" s="29">
-        <v>5.0199999999999907</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="C268" s="29"/>
-    </row>
-    <row r="269" spans="1:3" ht="13.2">
+      <c r="D268" s="29"/>
+    </row>
+    <row r="269" spans="1:4" ht="13.2">
       <c r="A269" s="14">
         <v>2147</v>
       </c>
       <c r="B269" s="29">
-        <v>5.0399999999999903</v>
+        <v>7.4199999999999946</v>
       </c>
       <c r="C269" s="29"/>
-    </row>
-    <row r="270" spans="1:3" ht="13.2">
+      <c r="D269" s="29"/>
+    </row>
+    <row r="270" spans="1:4" ht="13.2">
       <c r="A270" s="14">
         <v>2148</v>
       </c>
       <c r="B270" s="29">
-        <v>5.1099999999999905</v>
+        <v>7.4899999999999949</v>
       </c>
       <c r="C270" s="29"/>
-    </row>
-    <row r="271" spans="1:3" ht="13.2">
+      <c r="D270" s="29"/>
+    </row>
+    <row r="271" spans="1:4" ht="13.2">
       <c r="A271" s="14">
         <v>2149</v>
       </c>
       <c r="B271" s="29">
-        <v>5.1199999999999903</v>
+        <v>7.5599999999999952</v>
       </c>
       <c r="C271" s="29"/>
-    </row>
-    <row r="272" spans="1:3" ht="13.2">
+      <c r="D271" s="29"/>
+    </row>
+    <row r="272" spans="1:4" ht="13.2">
       <c r="A272" s="14">
         <v>2150</v>
       </c>
       <c r="B272" s="29">
-        <v>5.1599999999999904</v>
+        <v>7.6299999999999955</v>
       </c>
       <c r="C272" s="29"/>
+      <c r="D272" s="29"/>
     </row>
     <row r="273" spans="1:1" ht="13.2">
       <c r="A273" s="17"/>
@@ -5997,41 +8525,48 @@
       <c r="A1000" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B209">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="between">
+  <conditionalFormatting sqref="B2:C204 B205:B209 C205:C272">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="between">
       <formula>3</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C210:C272">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
+  <conditionalFormatting sqref="D210:D272">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="between">
       <formula>3</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210:B272">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="between">
       <formula>3</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B236:B272">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>5</formula>
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6315,56 +8850,56 @@
         <v>88</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>32</v>
@@ -6373,56 +8908,56 @@
         <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -6596,7 +9131,7 @@
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="19" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">

--- a/data/Tipping Points Data.xlsx
+++ b/data/Tipping Points Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freit\Documents\00 UniBremen\WS 18\Beyond Heatmaps\Project\FinalProject\D3Example\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3278B026-77FC-49DD-B294-A45E29396601}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C27311-EB2D-4D2D-AC33-ACC1E7C03ECE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -714,53 +714,11 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{7A2D7157-4AF2-4E63-894C-AA5D9F58603C}"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3230,15 +3188,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4716780</xdr:colOff>
-      <xdr:row>213</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>899160</xdr:colOff>
-      <xdr:row>239</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1097280</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3776,8 +3734,8 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="D240" sqref="D240"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="E215" sqref="E215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -8526,31 +8484,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:C204 B205:B209 C205:C272">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="between">
       <formula>3</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D210:D272">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
       <formula>3</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210:B272">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
       <formula>3</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>

--- a/data/Tipping Points Data.xlsx
+++ b/data/Tipping Points Data.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freit\Documents\00 UniBremen\WS 18\Beyond Heatmaps\Project\FinalProject\D3Example\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C27311-EB2D-4D2D-AC33-ACC1E7C03ECE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E55A02-21C2-4577-9C6C-D896CD970E43}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
-    <sheet name="Temperatures" sheetId="5" r:id="rId2"/>
-    <sheet name="Folha4" sheetId="2" r:id="rId3"/>
-    <sheet name="Feedbacks" sheetId="3" r:id="rId4"/>
-    <sheet name="Temperatures simulation" sheetId="6" r:id="rId5"/>
+    <sheet name="Temp - HotHouse" sheetId="5" r:id="rId2"/>
+    <sheet name="Temp - Stabilised" sheetId="7" r:id="rId3"/>
+    <sheet name="Folha4" sheetId="2" r:id="rId4"/>
+    <sheet name="Feedbacks" sheetId="3" r:id="rId5"/>
+    <sheet name="Temperatures simulation" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="131">
   <si>
     <t>Process</t>
   </si>
@@ -807,7 +808,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Temperatures!$B$1</c:f>
+              <c:f>'Temp - HotHouse'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -830,7 +831,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Temperatures!$A$2:$A$272</c:f>
+              <c:f>'Temp - HotHouse'!$A$2:$A$272</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="271"/>
@@ -1652,7 +1653,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Temperatures!$B$2:$B$272</c:f>
+              <c:f>'Temp - HotHouse'!$B$2:$B$272</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="271"/>
@@ -2627,6 +2628,1057 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Temp - Stabilised'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Annomaly</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Temp - Stabilised'!$A$2:$A$132</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="131"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2052</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2053</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2056</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2057</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2058</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2060</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2061</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2063</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2065</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2066</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2067</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2068</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2069</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2071</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2072</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2073</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2074</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2075</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2076</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2077</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2078</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2079</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2081</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2082</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2083</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2084</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2085</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2086</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2087</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2088</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2089</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2091</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2092</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2093</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2094</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2095</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2096</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2097</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2098</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2099</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2101</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2102</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2103</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2104</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2105</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2106</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2107</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2108</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2109</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2110</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2111</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2112</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2113</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2114</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2115</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2116</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2117</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2118</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2119</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2120</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2122</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2123</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2124</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2125</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2126</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2127</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2128</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2129</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2131</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2132</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2133</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2134</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2135</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2136</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2137</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2138</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2139</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2140</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2142</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2143</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2144</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2145</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2146</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2147</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2148</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2149</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Temp - Stabilised'!$B$2:$B$132</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="131"/>
+                <c:pt idx="0">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F39B-406A-8CF6-1E1604FA82F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="529695848"/>
+        <c:axId val="529690928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="529695848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="529690928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="529690928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="529695848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2667,7 +3719,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3226,6 +4834,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BD220B6-4EC3-4B36-8B12-62E704331DEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3734,8 +5383,8 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="E215" sqref="E215"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -8529,6 +10178,1081 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A261A8A-B6A8-4C73-828C-146C95C26EF1}">
+  <dimension ref="A1:B132"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection sqref="A1:B132"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="29">
+        <v>2020</v>
+      </c>
+      <c r="B2" s="29">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="29">
+        <v>2021</v>
+      </c>
+      <c r="B3" s="29">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="29">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="29">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="29">
+        <v>2023</v>
+      </c>
+      <c r="B5" s="29">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="29">
+        <v>2024</v>
+      </c>
+      <c r="B6" s="29">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="29">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="29">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="29">
+        <v>2026</v>
+      </c>
+      <c r="B8" s="29">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="29">
+        <v>2027</v>
+      </c>
+      <c r="B9" s="29">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="29">
+        <v>2028</v>
+      </c>
+      <c r="B10" s="29">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="29">
+        <v>2029</v>
+      </c>
+      <c r="B11" s="29">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="29">
+        <v>2030</v>
+      </c>
+      <c r="B12" s="29">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="29">
+        <v>2031</v>
+      </c>
+      <c r="B13" s="29">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="29">
+        <v>2032</v>
+      </c>
+      <c r="B14" s="29">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="29">
+        <v>2033</v>
+      </c>
+      <c r="B15" s="29">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="29">
+        <v>2034</v>
+      </c>
+      <c r="B16" s="29">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="29">
+        <v>2035</v>
+      </c>
+      <c r="B17" s="29">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="29">
+        <v>2036</v>
+      </c>
+      <c r="B18" s="29">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="29">
+        <v>2037</v>
+      </c>
+      <c r="B19" s="29">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="29">
+        <v>2038</v>
+      </c>
+      <c r="B20" s="29">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="29">
+        <v>2039</v>
+      </c>
+      <c r="B21" s="29">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="29">
+        <v>2040</v>
+      </c>
+      <c r="B22" s="29">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="29">
+        <v>2041</v>
+      </c>
+      <c r="B23" s="29">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="29">
+        <v>2042</v>
+      </c>
+      <c r="B24" s="29">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="29">
+        <v>2043</v>
+      </c>
+      <c r="B25" s="29">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="29">
+        <v>2044</v>
+      </c>
+      <c r="B26" s="29">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="29">
+        <v>2045</v>
+      </c>
+      <c r="B27" s="29">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="29">
+        <v>2046</v>
+      </c>
+      <c r="B28" s="29">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="29">
+        <v>2047</v>
+      </c>
+      <c r="B29" s="29">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="29">
+        <v>2048</v>
+      </c>
+      <c r="B30" s="29">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="29">
+        <v>2049</v>
+      </c>
+      <c r="B31" s="29">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="29">
+        <v>2050</v>
+      </c>
+      <c r="B32" s="29">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="29">
+        <v>2051</v>
+      </c>
+      <c r="B33" s="29">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="29">
+        <v>2052</v>
+      </c>
+      <c r="B34" s="29">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="29">
+        <v>2053</v>
+      </c>
+      <c r="B35" s="29">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="29">
+        <v>2054</v>
+      </c>
+      <c r="B36" s="29">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="29">
+        <v>2055</v>
+      </c>
+      <c r="B37" s="29">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="29">
+        <v>2056</v>
+      </c>
+      <c r="B38" s="29">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="29">
+        <v>2057</v>
+      </c>
+      <c r="B39" s="29">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="29">
+        <v>2058</v>
+      </c>
+      <c r="B40" s="29">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="29">
+        <v>2059</v>
+      </c>
+      <c r="B41" s="29">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="29">
+        <v>2060</v>
+      </c>
+      <c r="B42" s="29">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="29">
+        <v>2061</v>
+      </c>
+      <c r="B43" s="29">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="29">
+        <v>2062</v>
+      </c>
+      <c r="B44" s="29">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="29">
+        <v>2063</v>
+      </c>
+      <c r="B45" s="29">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="29">
+        <v>2064</v>
+      </c>
+      <c r="B46" s="29">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="29">
+        <v>2065</v>
+      </c>
+      <c r="B47" s="29">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="29">
+        <v>2066</v>
+      </c>
+      <c r="B48" s="29">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="29">
+        <v>2067</v>
+      </c>
+      <c r="B49" s="29">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="29">
+        <v>2068</v>
+      </c>
+      <c r="B50" s="29">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="29">
+        <v>2069</v>
+      </c>
+      <c r="B51" s="29">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="29">
+        <v>2070</v>
+      </c>
+      <c r="B52" s="29">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="29">
+        <v>2071</v>
+      </c>
+      <c r="B53" s="29">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="29">
+        <v>2072</v>
+      </c>
+      <c r="B54" s="29">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="29">
+        <v>2073</v>
+      </c>
+      <c r="B55" s="29">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="29">
+        <v>2074</v>
+      </c>
+      <c r="B56" s="29">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="29">
+        <v>2075</v>
+      </c>
+      <c r="B57" s="29">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="29">
+        <v>2076</v>
+      </c>
+      <c r="B58" s="29">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="29">
+        <v>2077</v>
+      </c>
+      <c r="B59" s="29">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="29">
+        <v>2078</v>
+      </c>
+      <c r="B60" s="29">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="29">
+        <v>2079</v>
+      </c>
+      <c r="B61" s="29">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="29">
+        <v>2080</v>
+      </c>
+      <c r="B62" s="29">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="29">
+        <v>2081</v>
+      </c>
+      <c r="B63" s="29">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="29">
+        <v>2082</v>
+      </c>
+      <c r="B64" s="29">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="29">
+        <v>2083</v>
+      </c>
+      <c r="B65" s="29">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="29">
+        <v>2084</v>
+      </c>
+      <c r="B66" s="29">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="29">
+        <v>2085</v>
+      </c>
+      <c r="B67" s="29">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="29">
+        <v>2086</v>
+      </c>
+      <c r="B68" s="29">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="29">
+        <v>2087</v>
+      </c>
+      <c r="B69" s="29">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="29">
+        <v>2088</v>
+      </c>
+      <c r="B70" s="29">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="29">
+        <v>2089</v>
+      </c>
+      <c r="B71" s="29">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="29">
+        <v>2090</v>
+      </c>
+      <c r="B72" s="29">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="29">
+        <v>2091</v>
+      </c>
+      <c r="B73" s="29">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="29">
+        <v>2092</v>
+      </c>
+      <c r="B74" s="29">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="29">
+        <v>2093</v>
+      </c>
+      <c r="B75" s="29">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="29">
+        <v>2094</v>
+      </c>
+      <c r="B76" s="29">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="29">
+        <v>2095</v>
+      </c>
+      <c r="B77" s="29">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="29">
+        <v>2096</v>
+      </c>
+      <c r="B78" s="29">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="29">
+        <v>2097</v>
+      </c>
+      <c r="B79" s="29">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="29">
+        <v>2098</v>
+      </c>
+      <c r="B80" s="29">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="29">
+        <v>2099</v>
+      </c>
+      <c r="B81" s="29">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="29">
+        <v>2100</v>
+      </c>
+      <c r="B82" s="29">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="29">
+        <v>2101</v>
+      </c>
+      <c r="B83" s="29">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="29">
+        <v>2102</v>
+      </c>
+      <c r="B84" s="29">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="29">
+        <v>2103</v>
+      </c>
+      <c r="B85" s="29">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="29">
+        <v>2104</v>
+      </c>
+      <c r="B86" s="29">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="29">
+        <v>2105</v>
+      </c>
+      <c r="B87" s="29">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="29">
+        <v>2106</v>
+      </c>
+      <c r="B88" s="29">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="29">
+        <v>2107</v>
+      </c>
+      <c r="B89" s="29">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="29">
+        <v>2108</v>
+      </c>
+      <c r="B90" s="29">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="29">
+        <v>2109</v>
+      </c>
+      <c r="B91" s="29">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="29">
+        <v>2110</v>
+      </c>
+      <c r="B92" s="29">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="29">
+        <v>2111</v>
+      </c>
+      <c r="B93" s="29">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="29">
+        <v>2112</v>
+      </c>
+      <c r="B94" s="29">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="29">
+        <v>2113</v>
+      </c>
+      <c r="B95" s="29">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="29">
+        <v>2114</v>
+      </c>
+      <c r="B96" s="29">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="29">
+        <v>2115</v>
+      </c>
+      <c r="B97" s="29">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="29">
+        <v>2116</v>
+      </c>
+      <c r="B98" s="29">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="29">
+        <v>2117</v>
+      </c>
+      <c r="B99" s="29">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="29">
+        <v>2118</v>
+      </c>
+      <c r="B100" s="29">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="29">
+        <v>2119</v>
+      </c>
+      <c r="B101" s="29">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="29">
+        <v>2120</v>
+      </c>
+      <c r="B102" s="29">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="29">
+        <v>2121</v>
+      </c>
+      <c r="B103" s="29">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="29">
+        <v>2122</v>
+      </c>
+      <c r="B104" s="29">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="29">
+        <v>2123</v>
+      </c>
+      <c r="B105" s="29">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="29">
+        <v>2124</v>
+      </c>
+      <c r="B106" s="29">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="29">
+        <v>2125</v>
+      </c>
+      <c r="B107" s="29">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="29">
+        <v>2126</v>
+      </c>
+      <c r="B108" s="29">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="29">
+        <v>2127</v>
+      </c>
+      <c r="B109" s="29">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="29">
+        <v>2128</v>
+      </c>
+      <c r="B110" s="29">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="29">
+        <v>2129</v>
+      </c>
+      <c r="B111" s="29">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="29">
+        <v>2130</v>
+      </c>
+      <c r="B112" s="29">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="29">
+        <v>2131</v>
+      </c>
+      <c r="B113" s="29">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="29">
+        <v>2132</v>
+      </c>
+      <c r="B114" s="29">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="29">
+        <v>2133</v>
+      </c>
+      <c r="B115" s="29">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="29">
+        <v>2134</v>
+      </c>
+      <c r="B116" s="29">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="29">
+        <v>2135</v>
+      </c>
+      <c r="B117" s="29">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="29">
+        <v>2136</v>
+      </c>
+      <c r="B118" s="29">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="29">
+        <v>2137</v>
+      </c>
+      <c r="B119" s="29">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="29">
+        <v>2138</v>
+      </c>
+      <c r="B120" s="29">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="29">
+        <v>2139</v>
+      </c>
+      <c r="B121" s="29">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="29">
+        <v>2140</v>
+      </c>
+      <c r="B122" s="29">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="29">
+        <v>2141</v>
+      </c>
+      <c r="B123" s="29">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="29">
+        <v>2142</v>
+      </c>
+      <c r="B124" s="29">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="29">
+        <v>2143</v>
+      </c>
+      <c r="B125" s="29">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="29">
+        <v>2144</v>
+      </c>
+      <c r="B126" s="29">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="29">
+        <v>2145</v>
+      </c>
+      <c r="B127" s="29">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="29">
+        <v>2146</v>
+      </c>
+      <c r="B128" s="29">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="29">
+        <v>2147</v>
+      </c>
+      <c r="B129" s="29">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="29">
+        <v>2148</v>
+      </c>
+      <c r="B130" s="29">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="29">
+        <v>2149</v>
+      </c>
+      <c r="B131" s="29">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="29">
+        <v>2150</v>
+      </c>
+      <c r="B132" s="29">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8941,7 +11665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9064,7 +11788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/data/Tipping Points Data.xlsx
+++ b/data/Tipping Points Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freit\Documents\00 UniBremen\WS 18\Beyond Heatmaps\Project\FinalProject\D3Example\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yjenn\Documents\Uni\Uni Bremen\HFK\BeyondHeatmaps\project\gitRepoVS\D3Example\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E55A02-21C2-4577-9C6C-D896CD970E43}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68D8AE0-BE52-42F7-89C9-9560EC9B8D0B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -712,8 +712,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{7A2D7157-4AF2-4E63-894C-AA5D9F58603C}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -786,7 +786,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2545,7 +2545,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="522688904"/>
@@ -2587,7 +2587,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2617,7 +2617,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2631,7 +2631,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2668,7 +2668,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3568,7 +3568,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="529690928"/>
@@ -3627,7 +3627,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="529695848"/>
@@ -3668,7 +3668,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4876,7 +4876,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5181,7 +5181,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.88671875" customWidth="1"/>
     <col min="2" max="3" width="20.109375" customWidth="1"/>
@@ -5383,11 +5383,11 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" topLeftCell="A234" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D247" sqref="D247"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="4" max="4" width="72.88671875" customWidth="1"/>
     <col min="5" max="5" width="56" customWidth="1"/>
@@ -7695,7 +7695,6 @@
         <v>6.1199999999999983</v>
       </c>
       <c r="C247" s="29"/>
-      <c r="D247" s="29"/>
     </row>
     <row r="248" spans="1:4" ht="13.2">
       <c r="A248" s="14">
@@ -10142,7 +10141,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D210:D272">
+  <conditionalFormatting sqref="D210:D246 D248:D272">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
       <formula>3</formula>
       <formula>5</formula>
@@ -10181,11 +10180,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A261A8A-B6A8-4C73-828C-146C95C26EF1}">
   <dimension ref="A1:B132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="29"/>
   </cols>
@@ -11263,7 +11262,7 @@
       <selection activeCell="A5" sqref="A5:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="44.88671875" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" customWidth="1"/>
@@ -11674,7 +11673,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="26.6640625" customWidth="1"/>
     <col min="2" max="2" width="23.88671875" customWidth="1"/>
@@ -11795,11 +11794,11 @@
   </sheetPr>
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="3" width="14.44140625" style="29"/>
   </cols>
